--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2636299.215014467</v>
+        <v>-2638049.783933104</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6661238.247473558</v>
+        <v>6661238.247473556</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>231.8416885950832</v>
       </c>
       <c r="E11" t="n">
         <v>278.3383741862053</v>
       </c>
       <c r="F11" t="n">
-        <v>303.2840498556549</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.9234123546363</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.91180785883446</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>107.3023197792036</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>266.1391047924125</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>104.7737614336105</v>
+        <v>282.6459427699971</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.94118776381082</v>
+        <v>62.9411877638109</v>
       </c>
       <c r="C12" t="n">
-        <v>69.11650310225922</v>
+        <v>69.1165031022593</v>
       </c>
       <c r="D12" t="n">
-        <v>43.85306967858223</v>
+        <v>43.85306967858232</v>
       </c>
       <c r="E12" t="n">
-        <v>143.6603252394044</v>
+        <v>54.05308456934451</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>41.47721650732744</v>
       </c>
       <c r="G12" t="n">
-        <v>135.852164523588</v>
+        <v>32.26016863753159</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.04962311002275</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.563150089057146</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S12" t="n">
-        <v>40.38995403882635</v>
+        <v>40.38995403882643</v>
       </c>
       <c r="T12" t="n">
-        <v>90.56153510783011</v>
+        <v>90.5615351078302</v>
       </c>
       <c r="U12" t="n">
-        <v>122.25127088968</v>
+        <v>225.8432667757365</v>
       </c>
       <c r="V12" t="n">
-        <v>129.2085912633688</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>148.1029872748631</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>102.180989317421</v>
+        <v>126.2458572114468</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.0906998912478</v>
+        <v>102.0906998912479</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.23998429588077</v>
+        <v>76.23998429588086</v>
       </c>
       <c r="C13" t="n">
-        <v>63.65482521257131</v>
+        <v>63.6548252125714</v>
       </c>
       <c r="D13" t="n">
-        <v>45.02347713215583</v>
+        <v>45.02347713215592</v>
       </c>
       <c r="E13" t="n">
-        <v>42.84196676051265</v>
+        <v>42.84196676051273</v>
       </c>
       <c r="F13" t="n">
-        <v>41.82905213687472</v>
+        <v>41.82905213687481</v>
       </c>
       <c r="G13" t="n">
-        <v>63.14868351712473</v>
+        <v>63.14868351712481</v>
       </c>
       <c r="H13" t="n">
-        <v>47.51887338264302</v>
+        <v>47.51887338264309</v>
       </c>
       <c r="I13" t="n">
-        <v>14.25854947703816</v>
+        <v>14.25854947703824</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.48336295654433</v>
+        <v>17.48336295654438</v>
       </c>
       <c r="S13" t="n">
-        <v>98.63528383939773</v>
+        <v>98.63528383939781</v>
       </c>
       <c r="T13" t="n">
-        <v>119.0114028242211</v>
+        <v>119.0114028242212</v>
       </c>
       <c r="U13" t="n">
-        <v>182.6588352910556</v>
+        <v>182.6588352910557</v>
       </c>
       <c r="V13" t="n">
         <v>148.5456474377715</v>
@@ -1591,10 +1591,10 @@
         <v>182.9310024505345</v>
       </c>
       <c r="X13" t="n">
-        <v>122.1176595029806</v>
+        <v>122.1176595029807</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.9926574660383</v>
+        <v>114.9926574660384</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279.1418457774241</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>261.680895884951</v>
+        <v>261.6808958849511</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>251.0910457346265</v>
       </c>
       <c r="E14" t="n">
         <v>278.3383741862053</v>
       </c>
       <c r="F14" t="n">
-        <v>303.2840498556549</v>
+        <v>303.284049855655</v>
       </c>
       <c r="G14" t="n">
-        <v>308.9234123546362</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.91180785883444</v>
+        <v>41.91180785883452</v>
       </c>
       <c r="T14" t="n">
-        <v>87.58089855616618</v>
+        <v>107.3023197792037</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>147.5306706798247</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>224.1602625840785</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.2078006804909</v>
       </c>
       <c r="X14" t="n">
-        <v>266.1391047924125</v>
+        <v>266.1391047924126</v>
       </c>
       <c r="Y14" t="n">
-        <v>282.6459427699971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>59.93613368209785</v>
+        <v>125.478506458133</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>7.563150089057117</v>
       </c>
       <c r="S15" t="n">
-        <v>40.38995403882635</v>
+        <v>40.38995403882643</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1535309938866</v>
+        <v>90.5615351078302</v>
       </c>
       <c r="U15" t="n">
-        <v>122.25127088968</v>
+        <v>122.2512708896801</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.23998429588077</v>
+        <v>76.23998429588086</v>
       </c>
       <c r="C16" t="n">
-        <v>63.65482521257131</v>
+        <v>63.6548252125714</v>
       </c>
       <c r="D16" t="n">
-        <v>45.02347713215583</v>
+        <v>45.02347713215592</v>
       </c>
       <c r="E16" t="n">
-        <v>42.84196676051265</v>
+        <v>42.84196676051273</v>
       </c>
       <c r="F16" t="n">
-        <v>41.82905213687472</v>
+        <v>41.82905213687481</v>
       </c>
       <c r="G16" t="n">
-        <v>63.14868351712473</v>
+        <v>63.14868351712482</v>
       </c>
       <c r="H16" t="n">
-        <v>47.51887338264302</v>
+        <v>47.51887338264311</v>
       </c>
       <c r="I16" t="n">
-        <v>14.25854947703815</v>
+        <v>14.25854947703824</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.4833629565443</v>
+        <v>17.48336295654439</v>
       </c>
       <c r="S16" t="n">
-        <v>98.63528383939772</v>
+        <v>98.6352838393978</v>
       </c>
       <c r="T16" t="n">
-        <v>119.0114028242211</v>
+        <v>119.0114028242212</v>
       </c>
       <c r="U16" t="n">
-        <v>182.6588352910556</v>
+        <v>182.6588352910557</v>
       </c>
       <c r="V16" t="n">
         <v>148.5456474377715</v>
@@ -1828,10 +1828,10 @@
         <v>182.9310024505345</v>
       </c>
       <c r="X16" t="n">
-        <v>122.1176595029806</v>
+        <v>122.1176595029807</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.9926574660383</v>
+        <v>114.9926574660384</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>199.8331492527602</v>
+        <v>199.8331492527603</v>
       </c>
       <c r="C17" t="n">
-        <v>182.3721993602872</v>
+        <v>159.8076186890005</v>
       </c>
       <c r="D17" t="n">
-        <v>171.7823492099626</v>
+        <v>171.7823492099627</v>
       </c>
       <c r="E17" t="n">
-        <v>199.0296776615414</v>
+        <v>199.0296776615415</v>
       </c>
       <c r="F17" t="n">
-        <v>223.9753533309911</v>
+        <v>223.9753533309912</v>
       </c>
       <c r="G17" t="n">
-        <v>229.6147158299724</v>
+        <v>229.6147158299725</v>
       </c>
       <c r="H17" t="n">
-        <v>128.0283737731644</v>
+        <v>128.0283737731645</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>27.99362325453975</v>
+        <v>27.99362325453986</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22197415516075</v>
+        <v>68.22197415516086</v>
       </c>
       <c r="V17" t="n">
-        <v>144.8515660594146</v>
+        <v>144.8515660594147</v>
       </c>
       <c r="W17" t="n">
-        <v>166.3402763066927</v>
+        <v>166.3402763066928</v>
       </c>
       <c r="X17" t="n">
-        <v>186.8304082677487</v>
+        <v>186.8304082677488</v>
       </c>
       <c r="Y17" t="n">
-        <v>180.7726655740456</v>
+        <v>203.3372462453333</v>
       </c>
     </row>
     <row r="18">
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>38.04962311002273</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>141.5851611355671</v>
       </c>
       <c r="T18" t="n">
-        <v>11.25283858316628</v>
+        <v>11.25283858316639</v>
       </c>
       <c r="U18" t="n">
-        <v>141.3072960492615</v>
+        <v>225.8432667757365</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>138.5226919871476</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7406794031812</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.8505453630947</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>19.32658731473389</v>
+        <v>19.326587314734</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70270629955724</v>
+        <v>39.70270629955736</v>
       </c>
       <c r="U19" t="n">
-        <v>200.5667790089919</v>
+        <v>103.3501387663919</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>69.23695091310776</v>
       </c>
       <c r="W19" t="n">
-        <v>103.6223059258706</v>
+        <v>103.6223059258708</v>
       </c>
       <c r="X19" t="n">
-        <v>42.8089629783168</v>
+        <v>42.80896297831691</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.68396094137444</v>
+        <v>35.68396094137455</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>199.8331492527602</v>
+        <v>199.8331492527603</v>
       </c>
       <c r="C20" t="n">
-        <v>182.3721993602872</v>
+        <v>182.3721993602873</v>
       </c>
       <c r="D20" t="n">
-        <v>149.217768538675</v>
+        <v>171.7823492099627</v>
       </c>
       <c r="E20" t="n">
-        <v>199.0296776615414</v>
+        <v>199.0296776615415</v>
       </c>
       <c r="F20" t="n">
-        <v>223.9753533309911</v>
+        <v>223.9753533309912</v>
       </c>
       <c r="G20" t="n">
-        <v>229.6147158299724</v>
+        <v>229.6147158299725</v>
       </c>
       <c r="H20" t="n">
-        <v>128.0283737731644</v>
+        <v>128.0283737731645</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>27.99362325453975</v>
+        <v>5.429042583253139</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22197415516075</v>
+        <v>68.22197415516086</v>
       </c>
       <c r="V20" t="n">
-        <v>144.8515660594146</v>
+        <v>144.8515660594147</v>
       </c>
       <c r="W20" t="n">
-        <v>166.3402763066927</v>
+        <v>166.3402763066928</v>
       </c>
       <c r="X20" t="n">
-        <v>186.8304082677487</v>
+        <v>186.8304082677488</v>
       </c>
       <c r="Y20" t="n">
-        <v>203.3372462453332</v>
+        <v>203.3372462453333</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2175,7 +2175,7 @@
         <v>135.852164523588</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>66.33385344698627</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>7.563150089057117</v>
       </c>
       <c r="S21" t="n">
-        <v>43.78261972200036</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T21" t="n">
-        <v>11.25283858316628</v>
+        <v>11.25283858316639</v>
       </c>
       <c r="U21" t="n">
         <v>225.8432667757365</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21664024260009</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,22 +2245,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7406794031812</v>
+        <v>71.41674733437723</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.2272797254543</v>
+        <v>19.326587314734</v>
       </c>
       <c r="T22" t="n">
-        <v>39.70270629955724</v>
+        <v>39.70270629955736</v>
       </c>
       <c r="U22" t="n">
-        <v>103.3501387663918</v>
+        <v>103.3501387663919</v>
       </c>
       <c r="V22" t="n">
-        <v>69.23695091310765</v>
+        <v>69.23695091310776</v>
       </c>
       <c r="W22" t="n">
-        <v>103.6223059258706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>42.8089629783168</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.68396094137444</v>
+        <v>35.68396094137455</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>199.8331492527602</v>
+        <v>199.8331492527603</v>
       </c>
       <c r="C23" t="n">
-        <v>182.3721993602872</v>
+        <v>182.3721993602873</v>
       </c>
       <c r="D23" t="n">
-        <v>171.7823492099626</v>
+        <v>171.7823492099627</v>
       </c>
       <c r="E23" t="n">
-        <v>199.0296776615414</v>
+        <v>199.0296776615415</v>
       </c>
       <c r="F23" t="n">
-        <v>223.9753533309911</v>
+        <v>223.9753533309912</v>
       </c>
       <c r="G23" t="n">
-        <v>229.6147158299724</v>
+        <v>229.6147158299725</v>
       </c>
       <c r="H23" t="n">
-        <v>128.0283737731644</v>
+        <v>128.0283737731645</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>27.99362325453975</v>
+        <v>27.99362325453986</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22197415516075</v>
+        <v>68.22197415516086</v>
       </c>
       <c r="V23" t="n">
-        <v>144.8515660594146</v>
+        <v>144.8515660594147</v>
       </c>
       <c r="W23" t="n">
-        <v>166.3402763066927</v>
+        <v>166.3402763066928</v>
       </c>
       <c r="X23" t="n">
-        <v>186.8304082677487</v>
+        <v>186.8304082677488</v>
       </c>
       <c r="Y23" t="n">
-        <v>203.3372462453332</v>
+        <v>203.3372462453333</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>20.385934974656</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>143.9819499248829</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1535309938866</v>
+        <v>69.47025357516098</v>
       </c>
       <c r="U24" t="n">
         <v>225.8432667757365</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>166.7406794031812</v>
       </c>
       <c r="H25" t="n">
-        <v>112.8705115546926</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>95.60844584925201</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.32658731473389</v>
+        <v>19.326587314734</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70270629955724</v>
+        <v>39.70270629955736</v>
       </c>
       <c r="U25" t="n">
-        <v>103.3501387663918</v>
+        <v>103.3501387663919</v>
       </c>
       <c r="V25" t="n">
-        <v>69.23695091310765</v>
+        <v>69.23695091310776</v>
       </c>
       <c r="W25" t="n">
-        <v>103.6223059258706</v>
+        <v>103.6223059258708</v>
       </c>
       <c r="X25" t="n">
-        <v>42.8089629783168</v>
+        <v>42.80896297831691</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.68396094137444</v>
+        <v>35.68396094137455</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.4251451388167</v>
+        <v>303.4251451388168</v>
       </c>
       <c r="C26" t="n">
-        <v>285.9641952463437</v>
+        <v>285.9641952463438</v>
       </c>
       <c r="D26" t="n">
-        <v>275.3743450960191</v>
+        <v>275.3743450960192</v>
       </c>
       <c r="E26" t="n">
-        <v>302.6216735475979</v>
+        <v>302.621673547598</v>
       </c>
       <c r="F26" t="n">
         <v>327.5673492170476</v>
       </c>
       <c r="G26" t="n">
-        <v>333.2067117160289</v>
+        <v>333.206711716029</v>
       </c>
       <c r="H26" t="n">
-        <v>231.6203696592209</v>
+        <v>231.620369659221</v>
       </c>
       <c r="I26" t="n">
-        <v>23.70868119280455</v>
+        <v>23.70868119280458</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.19510722022716</v>
+        <v>66.1951072202272</v>
       </c>
       <c r="T26" t="n">
         <v>131.5856191405963</v>
@@ -2621,7 +2621,7 @@
         <v>290.4224041538052</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.9292421313897</v>
+        <v>306.9292421313898</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>135.852164523588</v>
       </c>
       <c r="H27" t="n">
-        <v>97.83211742750973</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I27" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.563150089057146</v>
+        <v>7.563150089057117</v>
       </c>
       <c r="S27" t="n">
         <v>143.9819499248829</v>
@@ -2713,25 +2713,25 @@
         <v>100.5232836572735</v>
       </c>
       <c r="C28" t="n">
-        <v>87.938124573964</v>
+        <v>87.93812457396406</v>
       </c>
       <c r="D28" t="n">
-        <v>69.30677649354853</v>
+        <v>69.30677649354858</v>
       </c>
       <c r="E28" t="n">
-        <v>67.12526612190534</v>
+        <v>67.1252661219054</v>
       </c>
       <c r="F28" t="n">
-        <v>66.11235149826742</v>
+        <v>66.11235149826747</v>
       </c>
       <c r="G28" t="n">
-        <v>87.43198287851742</v>
+        <v>87.43198287851747</v>
       </c>
       <c r="H28" t="n">
-        <v>71.80217274403572</v>
+        <v>71.80217274403577</v>
       </c>
       <c r="I28" t="n">
-        <v>38.54184883843086</v>
+        <v>38.5418488384309</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76666231793702</v>
+        <v>41.76666231793705</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9185832007904</v>
+        <v>122.9185832007905</v>
       </c>
       <c r="T28" t="n">
-        <v>143.2947021856137</v>
+        <v>143.2947021856138</v>
       </c>
       <c r="U28" t="n">
         <v>206.9421346524483</v>
@@ -2776,10 +2776,10 @@
         <v>207.2143018119272</v>
       </c>
       <c r="X28" t="n">
-        <v>146.4009588643733</v>
+        <v>146.4009588643734</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.2759568274309</v>
+        <v>139.275956827431</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.4251451388167</v>
+        <v>303.4251451388168</v>
       </c>
       <c r="C29" t="n">
-        <v>285.9641952463437</v>
+        <v>285.9641952463438</v>
       </c>
       <c r="D29" t="n">
-        <v>275.3743450960191</v>
+        <v>275.3743450960192</v>
       </c>
       <c r="E29" t="n">
-        <v>302.6216735475979</v>
+        <v>302.621673547598</v>
       </c>
       <c r="F29" t="n">
         <v>327.5673492170476</v>
       </c>
       <c r="G29" t="n">
-        <v>333.2067117160289</v>
+        <v>333.206711716029</v>
       </c>
       <c r="H29" t="n">
-        <v>231.6203696592209</v>
+        <v>231.620369659221</v>
       </c>
       <c r="I29" t="n">
-        <v>23.70868119280452</v>
+        <v>23.70868119280458</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.19510722022714</v>
+        <v>66.19510722022717</v>
       </c>
       <c r="T29" t="n">
-        <v>131.5856191405963</v>
+        <v>131.5856191405964</v>
       </c>
       <c r="U29" t="n">
         <v>171.8139700412173</v>
@@ -2858,7 +2858,7 @@
         <v>290.4224041538052</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.9292421313897</v>
+        <v>306.9292421313898</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>100.5232836572735</v>
       </c>
       <c r="C31" t="n">
-        <v>87.938124573964</v>
+        <v>87.93812457396406</v>
       </c>
       <c r="D31" t="n">
-        <v>69.30677649354853</v>
+        <v>69.30677649354858</v>
       </c>
       <c r="E31" t="n">
-        <v>67.12526612190534</v>
+        <v>67.1252661219054</v>
       </c>
       <c r="F31" t="n">
-        <v>66.11235149826742</v>
+        <v>66.11235149826747</v>
       </c>
       <c r="G31" t="n">
-        <v>87.43198287851742</v>
+        <v>87.43198287851747</v>
       </c>
       <c r="H31" t="n">
-        <v>71.80217274403572</v>
+        <v>71.80217274403577</v>
       </c>
       <c r="I31" t="n">
-        <v>38.54184883843084</v>
+        <v>38.5418488384309</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.766662317937</v>
+        <v>41.76666231793705</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9185832007904</v>
+        <v>122.9185832007905</v>
       </c>
       <c r="T31" t="n">
-        <v>143.2947021856137</v>
+        <v>143.2947021856138</v>
       </c>
       <c r="U31" t="n">
         <v>206.9421346524483</v>
@@ -3013,10 +3013,10 @@
         <v>207.2143018119272</v>
       </c>
       <c r="X31" t="n">
-        <v>146.4009588643733</v>
+        <v>146.4009588643734</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.2759568274309</v>
+        <v>139.275956827431</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.4251451388167</v>
+        <v>303.4251451388168</v>
       </c>
       <c r="C32" t="n">
-        <v>285.9641952463437</v>
+        <v>285.9641952463438</v>
       </c>
       <c r="D32" t="n">
-        <v>275.3743450960191</v>
+        <v>275.3743450960192</v>
       </c>
       <c r="E32" t="n">
-        <v>302.6216735475979</v>
+        <v>302.621673547598</v>
       </c>
       <c r="F32" t="n">
         <v>327.5673492170476</v>
       </c>
       <c r="G32" t="n">
-        <v>333.2067117160289</v>
+        <v>333.206711716029</v>
       </c>
       <c r="H32" t="n">
-        <v>231.6203696592209</v>
+        <v>231.620369659221</v>
       </c>
       <c r="I32" t="n">
-        <v>23.70868119280449</v>
+        <v>23.70868119280458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.19510722022709</v>
+        <v>66.19510722022717</v>
       </c>
       <c r="T32" t="n">
-        <v>131.5856191405962</v>
+        <v>131.5856191405964</v>
       </c>
       <c r="U32" t="n">
         <v>171.8139700412173</v>
@@ -3095,7 +3095,7 @@
         <v>290.4224041538052</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.9292421313897</v>
+        <v>306.9292421313898</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.5232836572734</v>
+        <v>100.5232836572735</v>
       </c>
       <c r="C34" t="n">
-        <v>87.93812457396398</v>
+        <v>87.93812457396406</v>
       </c>
       <c r="D34" t="n">
-        <v>69.3067764935485</v>
+        <v>69.30677649354858</v>
       </c>
       <c r="E34" t="n">
-        <v>67.12526612190531</v>
+        <v>67.1252661219054</v>
       </c>
       <c r="F34" t="n">
-        <v>66.11235149826739</v>
+        <v>66.11235149826747</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43198287851739</v>
+        <v>87.43198287851747</v>
       </c>
       <c r="H34" t="n">
-        <v>71.80217274403569</v>
+        <v>71.80217274403576</v>
       </c>
       <c r="I34" t="n">
-        <v>38.54184883843082</v>
+        <v>38.54184883843091</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76666231793697</v>
+        <v>41.76666231793705</v>
       </c>
       <c r="S34" t="n">
-        <v>122.9185832007904</v>
+        <v>122.9185832007905</v>
       </c>
       <c r="T34" t="n">
-        <v>143.2947021856137</v>
+        <v>143.2947021856138</v>
       </c>
       <c r="U34" t="n">
         <v>206.9421346524483</v>
@@ -3250,10 +3250,10 @@
         <v>207.2143018119272</v>
       </c>
       <c r="X34" t="n">
-        <v>146.4009588643733</v>
+        <v>146.4009588643734</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.2759568274309</v>
+        <v>139.275956827431</v>
       </c>
     </row>
     <row r="35">
@@ -3439,13 +3439,13 @@
         <v>14.33361641398759</v>
       </c>
       <c r="H37" t="n">
-        <v>55.75934403127339</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>117.8505453630947</v>
+        <v>16.23985312662138</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>73.30259239984349</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.17759036290113</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.42491719274364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>21.31492092244974</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>21.20282640517445</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>14.33361641398759</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3718,10 +3718,10 @@
         <v>133.8437681879184</v>
       </c>
       <c r="V40" t="n">
-        <v>99.73058033463434</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>134.1159353473973</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>73.30259239984349</v>
@@ -3834,7 +3834,7 @@
         <v>135.852164523588</v>
       </c>
       <c r="H42" t="n">
-        <v>97.83211742750971</v>
+        <v>97.83211742750862</v>
       </c>
       <c r="I42" t="n">
         <v>38.04962311002273</v>
@@ -3901,22 +3901,22 @@
         <v>14.83975810943417</v>
       </c>
       <c r="D43" t="n">
-        <v>17.41123643419303</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7406794031812</v>
+        <v>14.33361641398759</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.8505453630947</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>47.29084743816185</v>
       </c>
       <c r="S43" t="n">
-        <v>49.82021673626058</v>
+        <v>202.2272797254543</v>
       </c>
       <c r="T43" t="n">
         <v>70.19633572108394</v>
@@ -3964,7 +3964,7 @@
         <v>73.30259239984349</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>66.17759036290113</v>
       </c>
     </row>
     <row r="44">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.42491719274364</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>14.83975810943417</v>
+        <v>59.63264003530513</v>
       </c>
       <c r="D46" t="n">
-        <v>24.3972514004555</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S46" t="n">
         <v>49.82021673626058</v>
@@ -4192,7 +4192,7 @@
         <v>133.8437681879184</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>99.73058033463434</v>
       </c>
       <c r="W46" t="n">
         <v>134.1159353473973</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>615.9635135381261</v>
+        <v>855.8433631280903</v>
       </c>
       <c r="C11" t="n">
-        <v>615.9635135381261</v>
+        <v>855.8433631280903</v>
       </c>
       <c r="D11" t="n">
-        <v>615.9635135381261</v>
+        <v>621.6598392946729</v>
       </c>
       <c r="E11" t="n">
-        <v>334.8136406227673</v>
+        <v>340.5099663793139</v>
       </c>
       <c r="F11" t="n">
-        <v>28.46611551604506</v>
+        <v>340.5099663793139</v>
       </c>
       <c r="G11" t="n">
         <v>28.46611551604506</v>
@@ -5039,19 +5039,19 @@
         <v>28.46611551604506</v>
       </c>
       <c r="J11" t="n">
-        <v>83.43604716125765</v>
+        <v>83.43604716125753</v>
       </c>
       <c r="K11" t="n">
-        <v>216.5602434586312</v>
+        <v>216.5602434586308</v>
       </c>
       <c r="L11" t="n">
-        <v>418.6143424701348</v>
+        <v>418.6143424701343</v>
       </c>
       <c r="M11" t="n">
-        <v>675.1078967214453</v>
+        <v>675.1078967214448</v>
       </c>
       <c r="N11" t="n">
-        <v>940.3655932151302</v>
+        <v>940.3655932151299</v>
       </c>
       <c r="O11" t="n">
         <v>1177.505652943962</v>
@@ -5066,25 +5066,25 @@
         <v>1423.305775802253</v>
       </c>
       <c r="S11" t="n">
-        <v>1380.970616348885</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="T11" t="n">
-        <v>1272.584434753729</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="U11" t="n">
-        <v>1272.584434753729</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="V11" t="n">
-        <v>1272.584434753729</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="W11" t="n">
-        <v>1272.584434753729</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="X11" t="n">
-        <v>1003.757056175535</v>
+        <v>1423.305775802253</v>
       </c>
       <c r="Y11" t="n">
-        <v>897.9249739193625</v>
+        <v>1137.804823509327</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>609.8811640486113</v>
+        <v>271.6580776322523</v>
       </c>
       <c r="C12" t="n">
-        <v>540.0665144503696</v>
+        <v>201.8434280340106</v>
       </c>
       <c r="D12" t="n">
-        <v>495.7704844720037</v>
+        <v>157.5473980556446</v>
       </c>
       <c r="E12" t="n">
-        <v>350.6590448362417</v>
+        <v>102.9483227330744</v>
       </c>
       <c r="F12" t="n">
-        <v>204.1244868631267</v>
+        <v>61.05214444284466</v>
       </c>
       <c r="G12" t="n">
-        <v>66.90007825344178</v>
+        <v>28.46611551604506</v>
       </c>
       <c r="H12" t="n">
-        <v>66.90007825344178</v>
+        <v>28.46611551604506</v>
       </c>
       <c r="I12" t="n">
         <v>28.46611551604506</v>
       </c>
       <c r="J12" t="n">
-        <v>42.38798326520923</v>
+        <v>42.38798326520927</v>
       </c>
       <c r="K12" t="n">
-        <v>343.2505218186901</v>
+        <v>343.25052181869</v>
       </c>
       <c r="L12" t="n">
         <v>526.6567661009651</v>
       </c>
       <c r="M12" t="n">
-        <v>760.0400706369735</v>
+        <v>760.0400706369737</v>
       </c>
       <c r="N12" t="n">
         <v>1014.008981706101</v>
@@ -5148,22 +5148,22 @@
         <v>1374.868296885199</v>
       </c>
       <c r="T12" t="n">
-        <v>1283.391998796481</v>
+        <v>1283.391998796482</v>
       </c>
       <c r="U12" t="n">
-        <v>1159.905866584684</v>
+        <v>1055.267486901798</v>
       </c>
       <c r="V12" t="n">
-        <v>1029.392138035826</v>
+        <v>820.1153786700556</v>
       </c>
       <c r="W12" t="n">
-        <v>879.7931609905098</v>
+        <v>565.8780219418541</v>
       </c>
       <c r="X12" t="n">
-        <v>776.5800404678624</v>
+        <v>438.3569540515037</v>
       </c>
       <c r="Y12" t="n">
-        <v>673.4581213857939</v>
+        <v>335.2350349694351</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.9564464442484</v>
+        <v>349.9564464442481</v>
       </c>
       <c r="C13" t="n">
-        <v>285.6586431992268</v>
+        <v>285.6586431992264</v>
       </c>
       <c r="D13" t="n">
-        <v>240.1803834697765</v>
+        <v>240.180383469776</v>
       </c>
       <c r="E13" t="n">
-        <v>196.9056695702687</v>
+        <v>196.9056695702682</v>
       </c>
       <c r="F13" t="n">
-        <v>154.6541017552438</v>
+        <v>154.6541017552431</v>
       </c>
       <c r="G13" t="n">
-        <v>90.86755274804621</v>
+        <v>90.86755274804635</v>
       </c>
       <c r="H13" t="n">
-        <v>42.86869074537653</v>
+        <v>42.86869074537663</v>
       </c>
       <c r="I13" t="n">
         <v>28.46611551604506</v>
       </c>
       <c r="J13" t="n">
-        <v>54.10813317477597</v>
+        <v>28.46611551604506</v>
       </c>
       <c r="K13" t="n">
-        <v>175.8708371231708</v>
+        <v>252.7848953916358</v>
       </c>
       <c r="L13" t="n">
-        <v>387.211611348359</v>
+        <v>464.1256696168241</v>
       </c>
       <c r="M13" t="n">
-        <v>620.4299487002318</v>
+        <v>799.9000828958928</v>
       </c>
       <c r="N13" t="n">
-        <v>853.5374916803447</v>
+        <v>1058.649643534737</v>
       </c>
       <c r="O13" t="n">
-        <v>1155.389817584332</v>
+        <v>1257.945893511529</v>
       </c>
       <c r="P13" t="n">
-        <v>1302.401506701684</v>
+        <v>1404.957582628881</v>
       </c>
       <c r="Q13" t="n">
         <v>1423.305775802253</v>
@@ -5224,10 +5224,10 @@
         <v>1405.645813219885</v>
       </c>
       <c r="S13" t="n">
-        <v>1306.014213382109</v>
+        <v>1306.01421338211</v>
       </c>
       <c r="T13" t="n">
-        <v>1185.800675175825</v>
+        <v>1185.800675175826</v>
       </c>
       <c r="U13" t="n">
         <v>1001.296801144456</v>
@@ -5236,13 +5236,13 @@
         <v>851.2506926214546</v>
       </c>
       <c r="W13" t="n">
-        <v>666.4719022673794</v>
+        <v>666.4719022673793</v>
       </c>
       <c r="X13" t="n">
-        <v>543.1207310522474</v>
+        <v>543.1207310522473</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.9665315916027</v>
+        <v>426.9665315916025</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1207.354281876463</v>
+        <v>1148.937749937059</v>
       </c>
       <c r="C14" t="n">
-        <v>943.0301446189364</v>
+        <v>884.6136126795329</v>
       </c>
       <c r="D14" t="n">
-        <v>943.0301446189364</v>
+        <v>630.9862937556677</v>
       </c>
       <c r="E14" t="n">
-        <v>661.8802717035776</v>
+        <v>349.8364208403088</v>
       </c>
       <c r="F14" t="n">
-        <v>355.5327465968555</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="G14" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="H14" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="I14" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="J14" t="n">
-        <v>265.864476399152</v>
+        <v>265.8644763991521</v>
       </c>
       <c r="K14" t="n">
-        <v>398.9886726965251</v>
+        <v>719.8926311419782</v>
       </c>
       <c r="L14" t="n">
-        <v>601.0427717080287</v>
+        <v>934.5932625453102</v>
       </c>
       <c r="M14" t="n">
-        <v>1128.361269340477</v>
+        <v>1191.086816796621</v>
       </c>
       <c r="N14" t="n">
-        <v>1666.53635404361</v>
+        <v>1456.344513290306</v>
       </c>
       <c r="O14" t="n">
-        <v>1903.676413772441</v>
+        <v>1693.484573019138</v>
       </c>
       <c r="P14" t="n">
-        <v>2071.568967462859</v>
+        <v>1861.377126709555</v>
       </c>
       <c r="Q14" t="n">
-        <v>2149.476536630733</v>
+        <v>2149.476536630735</v>
       </c>
       <c r="R14" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679327</v>
       </c>
       <c r="S14" t="n">
-        <v>2132.109627225957</v>
+        <v>2132.109627225959</v>
       </c>
       <c r="T14" t="n">
-        <v>2043.64407312882</v>
+        <v>2023.723445630804</v>
       </c>
       <c r="U14" t="n">
-        <v>2043.64407312882</v>
+        <v>1874.702566156233</v>
       </c>
       <c r="V14" t="n">
-        <v>2043.64407312882</v>
+        <v>1648.278058495548</v>
       </c>
       <c r="W14" t="n">
-        <v>2043.64407312882</v>
+        <v>1417.765128515254</v>
       </c>
       <c r="X14" t="n">
-        <v>1774.816694550625</v>
+        <v>1148.937749937059</v>
       </c>
       <c r="Y14" t="n">
-        <v>1489.315742257699</v>
+        <v>1148.937749937059</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>733.1898968283715</v>
+        <v>837.8282765112583</v>
       </c>
       <c r="C15" t="n">
-        <v>558.7368675472445</v>
+        <v>663.3752472301313</v>
       </c>
       <c r="D15" t="n">
-        <v>409.8024578859932</v>
+        <v>514.4408375688801</v>
       </c>
       <c r="E15" t="n">
-        <v>250.5650028805377</v>
+        <v>355.2033825634246</v>
       </c>
       <c r="F15" t="n">
-        <v>104.0304449074227</v>
+        <v>208.6688245903095</v>
       </c>
       <c r="G15" t="n">
-        <v>43.4888957335865</v>
+        <v>81.92285847098324</v>
       </c>
       <c r="H15" t="n">
-        <v>43.4888957335865</v>
+        <v>81.92285847098324</v>
       </c>
       <c r="I15" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="J15" t="n">
-        <v>182.2408884697554</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K15" t="n">
-        <v>546.0109872629245</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L15" t="n">
-        <v>1069.819262119546</v>
+        <v>754.5411211660103</v>
       </c>
       <c r="M15" t="n">
-        <v>1303.202566655555</v>
+        <v>987.9244257020189</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.171477724683</v>
+        <v>1241.893336771147</v>
       </c>
       <c r="O15" t="n">
-        <v>1767.283619300084</v>
+        <v>1452.005478346548</v>
       </c>
       <c r="P15" t="n">
-        <v>1916.584070484678</v>
+        <v>1916.58407048468</v>
       </c>
       <c r="Q15" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679327</v>
       </c>
       <c r="R15" t="n">
-        <v>2166.805241134823</v>
+        <v>2166.805241134825</v>
       </c>
       <c r="S15" t="n">
-        <v>2126.007307762271</v>
+        <v>2126.007307762273</v>
       </c>
       <c r="T15" t="n">
-        <v>1929.892629990668</v>
+        <v>2034.531009673555</v>
       </c>
       <c r="U15" t="n">
-        <v>1806.406497778871</v>
+        <v>1911.044877461757</v>
       </c>
       <c r="V15" t="n">
-        <v>1571.254389547128</v>
+        <v>1675.892769230015</v>
       </c>
       <c r="W15" t="n">
-        <v>1317.017032818926</v>
+        <v>1421.655412501813</v>
       </c>
       <c r="X15" t="n">
-        <v>1109.165532613393</v>
+        <v>1213.80391229628</v>
       </c>
       <c r="Y15" t="n">
-        <v>901.4052338484396</v>
+        <v>1006.043613531326</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364.979226661789</v>
+        <v>364.9792266617896</v>
       </c>
       <c r="C16" t="n">
-        <v>300.6814234167674</v>
+        <v>300.681423416768</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2031636873171</v>
+        <v>255.2031636873176</v>
       </c>
       <c r="E16" t="n">
-        <v>211.9284497878094</v>
+        <v>211.9284497878097</v>
       </c>
       <c r="F16" t="n">
-        <v>169.6768819727844</v>
+        <v>169.6768819727847</v>
       </c>
       <c r="G16" t="n">
-        <v>105.8903329655877</v>
+        <v>105.8903329655879</v>
       </c>
       <c r="H16" t="n">
-        <v>57.89147096291797</v>
+        <v>57.8914709629181</v>
       </c>
       <c r="I16" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="J16" t="n">
-        <v>43.4888957335865</v>
+        <v>141.131628115015</v>
       </c>
       <c r="K16" t="n">
-        <v>267.8076756091773</v>
+        <v>365.4504079906058</v>
       </c>
       <c r="L16" t="n">
-        <v>479.1484498343656</v>
+        <v>576.791182215794</v>
       </c>
       <c r="M16" t="n">
-        <v>712.3667871862383</v>
+        <v>810.0095195676668</v>
       </c>
       <c r="N16" t="n">
-        <v>945.4743301663514</v>
+        <v>1043.11706254778</v>
       </c>
       <c r="O16" t="n">
-        <v>1247.326656070339</v>
+        <v>1242.413312524571</v>
       </c>
       <c r="P16" t="n">
-        <v>1419.980362846421</v>
+        <v>1419.980362846422</v>
       </c>
       <c r="Q16" t="n">
-        <v>1438.328556019793</v>
+        <v>1438.328556019795</v>
       </c>
       <c r="R16" t="n">
-        <v>1420.668593437425</v>
+        <v>1420.668593437427</v>
       </c>
       <c r="S16" t="n">
-        <v>1321.03699359965</v>
+        <v>1321.036993599651</v>
       </c>
       <c r="T16" t="n">
-        <v>1200.823455393366</v>
+        <v>1200.823455393367</v>
       </c>
       <c r="U16" t="n">
-        <v>1016.319581361997</v>
+        <v>1016.319581361998</v>
       </c>
       <c r="V16" t="n">
-        <v>866.2734728389951</v>
+        <v>866.2734728389962</v>
       </c>
       <c r="W16" t="n">
-        <v>681.4946824849198</v>
+        <v>681.4946824849209</v>
       </c>
       <c r="X16" t="n">
-        <v>558.143511269788</v>
+        <v>558.1435112697889</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9893118091433</v>
+        <v>441.989311809144</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1189.754218123404</v>
+        <v>1166.961712394832</v>
       </c>
       <c r="C17" t="n">
         <v>1005.539875335235</v>
       </c>
       <c r="D17" t="n">
-        <v>832.0223508807273</v>
+        <v>832.0223508807277</v>
       </c>
       <c r="E17" t="n">
-        <v>630.9822724347258</v>
+        <v>630.9822724347262</v>
       </c>
       <c r="F17" t="n">
-        <v>404.7445417973611</v>
+        <v>404.7445417973613</v>
       </c>
       <c r="G17" t="n">
-        <v>172.8104854034495</v>
+        <v>172.8104854034497</v>
       </c>
       <c r="H17" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="I17" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="J17" t="n">
-        <v>98.45882737879899</v>
+        <v>265.8644763991521</v>
       </c>
       <c r="K17" t="n">
-        <v>459.6217753243567</v>
+        <v>624.1502831973445</v>
       </c>
       <c r="L17" t="n">
-        <v>661.6758743358603</v>
+        <v>826.2043822088481</v>
       </c>
       <c r="M17" t="n">
-        <v>918.1694285871711</v>
+        <v>1082.697936460159</v>
       </c>
       <c r="N17" t="n">
-        <v>1456.344513290304</v>
+        <v>1347.955632953844</v>
       </c>
       <c r="O17" t="n">
-        <v>1693.484573019136</v>
+        <v>1585.095692682675</v>
       </c>
       <c r="P17" t="n">
-        <v>1861.377126709554</v>
+        <v>2071.568967462861</v>
       </c>
       <c r="Q17" t="n">
-        <v>2149.476536630733</v>
+        <v>2149.476536630735</v>
       </c>
       <c r="R17" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679327</v>
       </c>
       <c r="S17" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679327</v>
       </c>
       <c r="T17" t="n">
-        <v>2146.168399553528</v>
+        <v>2146.16839955353</v>
       </c>
       <c r="U17" t="n">
-        <v>2077.257314548314</v>
+        <v>2077.257314548317</v>
       </c>
       <c r="V17" t="n">
-        <v>1930.942601356987</v>
+        <v>1930.942601356989</v>
       </c>
       <c r="W17" t="n">
-        <v>1762.922120239115</v>
+        <v>1762.922120239117</v>
       </c>
       <c r="X17" t="n">
-        <v>1574.204536130278</v>
+        <v>1574.20453613028</v>
       </c>
       <c r="Y17" t="n">
-        <v>1391.605884035283</v>
+        <v>1368.813378306711</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>947.1270396354652</v>
+        <v>711.0823103919321</v>
       </c>
       <c r="C18" t="n">
-        <v>772.6740103543382</v>
+        <v>536.6292811108051</v>
       </c>
       <c r="D18" t="n">
-        <v>623.7396006930869</v>
+        <v>387.6948714495538</v>
       </c>
       <c r="E18" t="n">
-        <v>464.5021456876314</v>
+        <v>228.4574164440983</v>
       </c>
       <c r="F18" t="n">
-        <v>317.9675877145163</v>
+        <v>81.92285847098324</v>
       </c>
       <c r="G18" t="n">
-        <v>180.7431791048314</v>
+        <v>81.92285847098324</v>
       </c>
       <c r="H18" t="n">
-        <v>81.9228584709832</v>
+        <v>81.92285847098324</v>
       </c>
       <c r="I18" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="J18" t="n">
-        <v>57.41076348275071</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3602776334669</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L18" t="n">
-        <v>342.766521915742</v>
+        <v>729.4172315451997</v>
       </c>
       <c r="M18" t="n">
-        <v>880.9416066188751</v>
+        <v>962.8005360812083</v>
       </c>
       <c r="N18" t="n">
-        <v>1134.910517688003</v>
+        <v>1500.975620784342</v>
       </c>
       <c r="O18" t="n">
-        <v>1673.085602391136</v>
+        <v>1711.087762359743</v>
       </c>
       <c r="P18" t="n">
-        <v>1916.584070484678</v>
+        <v>1916.58407048468</v>
       </c>
       <c r="Q18" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679327</v>
       </c>
       <c r="R18" t="n">
-        <v>2174.444786679325</v>
+        <v>2166.805241134825</v>
       </c>
       <c r="S18" t="n">
-        <v>2174.444786679325</v>
+        <v>2023.789926856474</v>
       </c>
       <c r="T18" t="n">
-        <v>2163.078283059966</v>
+        <v>2012.423423237114</v>
       </c>
       <c r="U18" t="n">
-        <v>2020.343640585964</v>
+        <v>1784.298911342431</v>
       </c>
       <c r="V18" t="n">
-        <v>1785.191532354221</v>
+        <v>1549.146803110688</v>
       </c>
       <c r="W18" t="n">
-        <v>1530.95417562602</v>
+        <v>1294.909446382487</v>
       </c>
       <c r="X18" t="n">
-        <v>1323.102675420487</v>
+        <v>1087.057946176954</v>
       </c>
       <c r="Y18" t="n">
-        <v>1115.342376655533</v>
+        <v>879.2976474120001</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.716865503972</v>
+        <v>608.0152013336512</v>
       </c>
       <c r="C19" t="n">
-        <v>506.716865503972</v>
+        <v>608.0152013336512</v>
       </c>
       <c r="D19" t="n">
-        <v>506.716865503972</v>
+        <v>468.0932902355223</v>
       </c>
       <c r="E19" t="n">
-        <v>358.8037719215789</v>
+        <v>320.1801966531292</v>
       </c>
       <c r="F19" t="n">
-        <v>211.9138244236686</v>
+        <v>320.1801966531292</v>
       </c>
       <c r="G19" t="n">
-        <v>43.4888957335865</v>
+        <v>320.1801966531292</v>
       </c>
       <c r="H19" t="n">
-        <v>43.4888957335865</v>
+        <v>167.5429549675741</v>
       </c>
       <c r="I19" t="n">
-        <v>43.4888957335865</v>
+        <v>48.50200005535723</v>
       </c>
       <c r="J19" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="K19" t="n">
         <v>165.2515996819814</v>
       </c>
       <c r="L19" t="n">
-        <v>376.5923739071696</v>
+        <v>376.5923739071697</v>
       </c>
       <c r="M19" t="n">
-        <v>609.8107112590424</v>
+        <v>609.8107112590425</v>
       </c>
       <c r="N19" t="n">
         <v>842.9182542391554</v>
@@ -5704,19 +5704,19 @@
         <v>1147.948837401327</v>
       </c>
       <c r="U19" t="n">
-        <v>945.3561313316386</v>
+        <v>1043.554757839315</v>
       </c>
       <c r="V19" t="n">
-        <v>690.6716431257518</v>
+        <v>973.618443785671</v>
       </c>
       <c r="W19" t="n">
-        <v>586.002647241034</v>
+        <v>868.9494479009531</v>
       </c>
       <c r="X19" t="n">
-        <v>542.7612704952594</v>
+        <v>825.7080711551785</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.716865503972</v>
+        <v>789.663666163891</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.961712394831</v>
+        <v>1189.754218123405</v>
       </c>
       <c r="C20" t="n">
-        <v>982.7473696066617</v>
+        <v>1005.539875335235</v>
       </c>
       <c r="D20" t="n">
-        <v>832.0223508807271</v>
+        <v>832.0223508807277</v>
       </c>
       <c r="E20" t="n">
-        <v>630.9822724347257</v>
+        <v>630.9822724347262</v>
       </c>
       <c r="F20" t="n">
-        <v>404.744541797361</v>
+        <v>404.7445417973613</v>
       </c>
       <c r="G20" t="n">
-        <v>172.8104854034495</v>
+        <v>172.8104854034497</v>
       </c>
       <c r="H20" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="I20" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="J20" t="n">
-        <v>195.0903785031089</v>
+        <v>265.8644763991521</v>
       </c>
       <c r="K20" t="n">
-        <v>649.1185332459351</v>
+        <v>719.8926311419782</v>
       </c>
       <c r="L20" t="n">
-        <v>851.1726322574386</v>
+        <v>921.9467301534818</v>
       </c>
       <c r="M20" t="n">
-        <v>1107.666186508749</v>
+        <v>1178.440284404793</v>
       </c>
       <c r="N20" t="n">
-        <v>1372.923883002434</v>
+        <v>1443.697980898478</v>
       </c>
       <c r="O20" t="n">
-        <v>1610.063942731266</v>
+        <v>1680.838040627309</v>
       </c>
       <c r="P20" t="n">
-        <v>2096.537217511452</v>
+        <v>1861.377126709555</v>
       </c>
       <c r="Q20" t="n">
-        <v>2174.444786679325</v>
+        <v>2149.476536630735</v>
       </c>
       <c r="R20" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679327</v>
       </c>
       <c r="S20" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679327</v>
       </c>
       <c r="T20" t="n">
-        <v>2146.168399553528</v>
+        <v>2168.960905282102</v>
       </c>
       <c r="U20" t="n">
-        <v>2077.257314548315</v>
+        <v>2100.049820276889</v>
       </c>
       <c r="V20" t="n">
-        <v>1930.942601356987</v>
+        <v>1953.735107085561</v>
       </c>
       <c r="W20" t="n">
-        <v>1762.922120239115</v>
+        <v>1785.71462596769</v>
       </c>
       <c r="X20" t="n">
-        <v>1574.204536130278</v>
+        <v>1596.997041858853</v>
       </c>
       <c r="Y20" t="n">
-        <v>1368.81337830671</v>
+        <v>1391.605884035284</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>809.8727562642201</v>
+        <v>876.8766486349134</v>
       </c>
       <c r="C21" t="n">
-        <v>635.4197269830931</v>
+        <v>702.4236193537864</v>
       </c>
       <c r="D21" t="n">
-        <v>486.4853173218419</v>
+        <v>553.4892096925352</v>
       </c>
       <c r="E21" t="n">
-        <v>327.2478623163864</v>
+        <v>394.2517546870797</v>
       </c>
       <c r="F21" t="n">
-        <v>180.7133043432714</v>
+        <v>247.7171967139646</v>
       </c>
       <c r="G21" t="n">
-        <v>43.4888957335865</v>
+        <v>110.4927881042798</v>
       </c>
       <c r="H21" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="I21" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="J21" t="n">
-        <v>60.572452528197</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K21" t="n">
-        <v>424.342551321366</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L21" t="n">
-        <v>962.5176360244991</v>
+        <v>754.5411211660103</v>
       </c>
       <c r="M21" t="n">
-        <v>1195.900940560508</v>
+        <v>987.9244257020189</v>
       </c>
       <c r="N21" t="n">
-        <v>1449.869851629635</v>
+        <v>1241.893336771147</v>
       </c>
       <c r="O21" t="n">
-        <v>1659.981993205036</v>
+        <v>1452.005478346548</v>
       </c>
       <c r="P21" t="n">
-        <v>2124.560585343168</v>
+        <v>1916.58407048468</v>
       </c>
       <c r="Q21" t="n">
-        <v>2174.444786679325</v>
+        <v>2174.444786679327</v>
       </c>
       <c r="R21" t="n">
-        <v>2166.805241134823</v>
+        <v>2166.805241134825</v>
       </c>
       <c r="S21" t="n">
-        <v>2122.580372728762</v>
+        <v>2021.368928079388</v>
       </c>
       <c r="T21" t="n">
-        <v>2111.213869109402</v>
+        <v>2010.002424460028</v>
       </c>
       <c r="U21" t="n">
-        <v>1883.089357214719</v>
+        <v>1781.877912565344</v>
       </c>
       <c r="V21" t="n">
-        <v>1647.937248982976</v>
+        <v>1546.725804333602</v>
       </c>
       <c r="W21" t="n">
-        <v>1393.699892254775</v>
+        <v>1292.4884476054</v>
       </c>
       <c r="X21" t="n">
-        <v>1185.848392049242</v>
+        <v>1084.636947399867</v>
       </c>
       <c r="Y21" t="n">
-        <v>978.0880932842881</v>
+        <v>876.8766486349134</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.716865503972</v>
+        <v>420.1673178594057</v>
       </c>
       <c r="C22" t="n">
-        <v>506.716865503972</v>
+        <v>420.1673178594057</v>
       </c>
       <c r="D22" t="n">
-        <v>506.716865503972</v>
+        <v>420.1673178594057</v>
       </c>
       <c r="E22" t="n">
-        <v>358.8037719215789</v>
+        <v>420.1673178594057</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9138244236686</v>
+        <v>273.2773703614954</v>
       </c>
       <c r="G22" t="n">
-        <v>43.4888957335865</v>
+        <v>201.1392417409123</v>
       </c>
       <c r="H22" t="n">
-        <v>43.4888957335865</v>
+        <v>48.50200005535723</v>
       </c>
       <c r="I22" t="n">
-        <v>43.4888957335865</v>
+        <v>48.50200005535723</v>
       </c>
       <c r="J22" t="n">
-        <v>43.4888957335865</v>
+        <v>43.48889573358655</v>
       </c>
       <c r="K22" t="n">
         <v>165.2515996819814</v>
       </c>
       <c r="L22" t="n">
-        <v>376.5923739071696</v>
+        <v>376.5923739071697</v>
       </c>
       <c r="M22" t="n">
-        <v>609.8107112590424</v>
+        <v>609.8107112590425</v>
       </c>
       <c r="N22" t="n">
         <v>842.9182542391554</v>
@@ -5935,25 +5935,25 @@
         <v>1207.574386506672</v>
       </c>
       <c r="S22" t="n">
-        <v>1003.304406986011</v>
+        <v>1188.052581138254</v>
       </c>
       <c r="T22" t="n">
-        <v>963.2006632490846</v>
+        <v>1147.948837401327</v>
       </c>
       <c r="U22" t="n">
-        <v>858.8065836870727</v>
+        <v>1043.554757839315</v>
       </c>
       <c r="V22" t="n">
-        <v>788.8702696334286</v>
+        <v>973.618443785671</v>
       </c>
       <c r="W22" t="n">
-        <v>684.2012737487108</v>
+        <v>684.2012737487105</v>
       </c>
       <c r="X22" t="n">
-        <v>640.9598970029363</v>
+        <v>456.2117228506931</v>
       </c>
       <c r="Y22" t="n">
-        <v>604.9154920116489</v>
+        <v>420.1673178594057</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190.219371301538</v>
+        <v>1190.219371301539</v>
       </c>
       <c r="C23" t="n">
-        <v>1006.005028513369</v>
+        <v>1006.00502851337</v>
       </c>
       <c r="D23" t="n">
-        <v>832.4875040588613</v>
+        <v>832.4875040588622</v>
       </c>
       <c r="E23" t="n">
-        <v>631.4474256128598</v>
+        <v>631.4474256128608</v>
       </c>
       <c r="F23" t="n">
-        <v>405.209694975495</v>
+        <v>405.2096949754959</v>
       </c>
       <c r="G23" t="n">
-        <v>173.2756385815837</v>
+        <v>173.2756385815838</v>
       </c>
       <c r="H23" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172069</v>
       </c>
       <c r="I23" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172069</v>
       </c>
       <c r="J23" t="n">
-        <v>266.3296295772861</v>
+        <v>266.3296295772862</v>
       </c>
       <c r="K23" t="n">
-        <v>468.3590214092796</v>
+        <v>437.2161013507463</v>
       </c>
       <c r="L23" t="n">
-        <v>670.4131204207832</v>
+        <v>639.2702003622499</v>
       </c>
       <c r="M23" t="n">
-        <v>1214.344475703326</v>
+        <v>895.7637546135606</v>
       </c>
       <c r="N23" t="n">
-        <v>1479.602172197011</v>
+        <v>1161.021451107246</v>
       </c>
       <c r="O23" t="n">
-        <v>1716.742231925843</v>
+        <v>1398.161510836077</v>
       </c>
       <c r="P23" t="n">
-        <v>1884.634785616261</v>
+        <v>1884.634785616263</v>
       </c>
       <c r="Q23" t="n">
-        <v>2172.73419553744</v>
+        <v>2172.734195537442</v>
       </c>
       <c r="R23" t="n">
-        <v>2197.702445586032</v>
+        <v>2197.702445586035</v>
       </c>
       <c r="S23" t="n">
-        <v>2197.702445586032</v>
+        <v>2197.702445586035</v>
       </c>
       <c r="T23" t="n">
-        <v>2169.426058460235</v>
+        <v>2169.426058460237</v>
       </c>
       <c r="U23" t="n">
-        <v>2100.514973455022</v>
+        <v>2100.514973455024</v>
       </c>
       <c r="V23" t="n">
-        <v>1954.200260263694</v>
+        <v>1954.200260263696</v>
       </c>
       <c r="W23" t="n">
-        <v>1786.179779145823</v>
+        <v>1786.179779145824</v>
       </c>
       <c r="X23" t="n">
-        <v>1597.462195036986</v>
+        <v>1597.462195036987</v>
       </c>
       <c r="Y23" t="n">
-        <v>1392.071037213417</v>
+        <v>1392.071037213418</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>547.1707963693079</v>
+        <v>673.1135008326695</v>
       </c>
       <c r="C24" t="n">
-        <v>372.7177670881809</v>
+        <v>498.6604715515425</v>
       </c>
       <c r="D24" t="n">
-        <v>223.7833574269297</v>
+        <v>349.7260618902912</v>
       </c>
       <c r="E24" t="n">
-        <v>64.54590242147418</v>
+        <v>190.4886068848357</v>
       </c>
       <c r="F24" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172069</v>
       </c>
       <c r="G24" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172069</v>
       </c>
       <c r="H24" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172069</v>
       </c>
       <c r="I24" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172069</v>
       </c>
       <c r="J24" t="n">
         <v>182.7060416478896</v>
@@ -6072,46 +6072,46 @@
         <v>546.4761404410586</v>
       </c>
       <c r="L24" t="n">
-        <v>777.7987800727155</v>
+        <v>729.8823847233338</v>
       </c>
       <c r="M24" t="n">
-        <v>1011.182084608724</v>
+        <v>963.2656892593423</v>
       </c>
       <c r="N24" t="n">
-        <v>1265.150995677852</v>
+        <v>1217.23460032847</v>
       </c>
       <c r="O24" t="n">
-        <v>1475.263137253253</v>
+        <v>1475.263137253255</v>
       </c>
       <c r="P24" t="n">
-        <v>1939.841729391385</v>
+        <v>1939.841729391387</v>
       </c>
       <c r="Q24" t="n">
-        <v>2197.702445586032</v>
+        <v>2197.702445586035</v>
       </c>
       <c r="R24" t="n">
-        <v>2190.06290004153</v>
+        <v>2190.062900041532</v>
       </c>
       <c r="S24" t="n">
-        <v>2044.626586986093</v>
+        <v>2044.626586986095</v>
       </c>
       <c r="T24" t="n">
-        <v>1848.51190921449</v>
+        <v>1974.454613677852</v>
       </c>
       <c r="U24" t="n">
-        <v>1620.387397319807</v>
+        <v>1746.330101783168</v>
       </c>
       <c r="V24" t="n">
-        <v>1385.235289088064</v>
+        <v>1511.177993551426</v>
       </c>
       <c r="W24" t="n">
-        <v>1130.997932359863</v>
+        <v>1256.940636823224</v>
       </c>
       <c r="X24" t="n">
-        <v>923.1464321543299</v>
+        <v>1049.089136617691</v>
       </c>
       <c r="Y24" t="n">
-        <v>715.386133389376</v>
+        <v>841.3288378527375</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.1288193420258</v>
+        <v>608.4803545117854</v>
       </c>
       <c r="C25" t="n">
-        <v>621.192636414119</v>
+        <v>608.4803545117854</v>
       </c>
       <c r="D25" t="n">
-        <v>621.192636414119</v>
+        <v>608.4803545117854</v>
       </c>
       <c r="E25" t="n">
-        <v>473.2795428317258</v>
+        <v>608.4803545117854</v>
       </c>
       <c r="F25" t="n">
-        <v>326.3895953338155</v>
+        <v>461.5904070138751</v>
       </c>
       <c r="G25" t="n">
-        <v>157.9646666437334</v>
+        <v>293.165478323793</v>
       </c>
       <c r="H25" t="n">
-        <v>43.95404891172065</v>
+        <v>140.5282366382379</v>
       </c>
       <c r="I25" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172069</v>
       </c>
       <c r="J25" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172069</v>
       </c>
       <c r="K25" t="n">
         <v>165.7167528601155</v>
@@ -6175,22 +6175,22 @@
         <v>1188.517734316388</v>
       </c>
       <c r="T25" t="n">
-        <v>1148.413990579462</v>
+        <v>1148.413990579461</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.01991101745</v>
+        <v>1044.019911017449</v>
       </c>
       <c r="V25" t="n">
-        <v>974.0835969638056</v>
+        <v>974.0835969638052</v>
       </c>
       <c r="W25" t="n">
-        <v>869.4146010790878</v>
+        <v>869.4146010790873</v>
       </c>
       <c r="X25" t="n">
-        <v>826.1732243333132</v>
+        <v>826.1732243333126</v>
       </c>
       <c r="Y25" t="n">
-        <v>790.1288193420258</v>
+        <v>790.1288193420252</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.612319227322</v>
+        <v>1871.612319227323</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.759596756267</v>
+        <v>1582.759596756269</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.603692618874</v>
+        <v>1304.603692618876</v>
       </c>
       <c r="E26" t="n">
-        <v>998.9252344899876</v>
+        <v>998.9252344899888</v>
       </c>
       <c r="F26" t="n">
-        <v>668.0491241697373</v>
+        <v>668.0491241697387</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4766880929405</v>
+        <v>331.4766880929415</v>
       </c>
       <c r="H26" t="n">
-        <v>97.51671874019291</v>
+        <v>97.51671874019297</v>
       </c>
       <c r="I26" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J26" t="n">
-        <v>295.9441365847437</v>
+        <v>295.9441365847438</v>
       </c>
       <c r="K26" t="n">
-        <v>429.0683328821166</v>
+        <v>749.97229132757</v>
       </c>
       <c r="L26" t="n">
-        <v>1044.607034298566</v>
+        <v>1365.510992744019</v>
       </c>
       <c r="M26" t="n">
-        <v>1746.118986707781</v>
+        <v>1622.00454699533</v>
       </c>
       <c r="N26" t="n">
-        <v>2444.35013836933</v>
+        <v>2320.235698656879</v>
       </c>
       <c r="O26" t="n">
-        <v>3058.482377548279</v>
+        <v>2878.886861208955</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.328386037732</v>
+        <v>3365.36013598914</v>
       </c>
       <c r="Q26" t="n">
-        <v>3678.427795958911</v>
+        <v>3653.45954591032</v>
       </c>
       <c r="R26" t="n">
-        <v>3678.427795958911</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S26" t="n">
-        <v>3611.564051292014</v>
+        <v>3611.564051292016</v>
       </c>
       <c r="T26" t="n">
-        <v>3478.649284483331</v>
+        <v>3478.649284483333</v>
       </c>
       <c r="U26" t="n">
-        <v>3305.099819795233</v>
+        <v>3305.099819795234</v>
       </c>
       <c r="V26" t="n">
-        <v>3054.14672692102</v>
+        <v>3054.146726921021</v>
       </c>
       <c r="W26" t="n">
-        <v>2781.487866120263</v>
+        <v>2781.487866120264</v>
       </c>
       <c r="X26" t="n">
-        <v>2488.13190232854</v>
+        <v>2488.131902328542</v>
       </c>
       <c r="Y26" t="n">
-        <v>2178.102364822086</v>
+        <v>2178.102364822088</v>
       </c>
     </row>
     <row r="27">
@@ -6294,34 +6294,34 @@
         <v>348.047247900108</v>
       </c>
       <c r="G27" t="n">
-        <v>210.8228392904232</v>
+        <v>210.8228392904231</v>
       </c>
       <c r="H27" t="n">
         <v>112.0025186565749</v>
       </c>
       <c r="I27" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J27" t="n">
-        <v>120.2129211069218</v>
+        <v>212.3205486553472</v>
       </c>
       <c r="K27" t="n">
-        <v>222.162435257638</v>
+        <v>576.0906474485162</v>
       </c>
       <c r="L27" t="n">
-        <v>405.568679539913</v>
+        <v>1126.628833581216</v>
       </c>
       <c r="M27" t="n">
-        <v>1099.999997188421</v>
+        <v>1360.012138117224</v>
       </c>
       <c r="N27" t="n">
-        <v>1828.517858857667</v>
+        <v>1613.981049186352</v>
       </c>
       <c r="O27" t="n">
-        <v>2428.55369651703</v>
+        <v>1905.299040705002</v>
       </c>
       <c r="P27" t="n">
-        <v>2577.854147701624</v>
+        <v>2369.877632843134</v>
       </c>
       <c r="Q27" t="n">
         <v>2627.738349037781</v>
@@ -6367,46 +6367,46 @@
         <v>407.9257499405489</v>
       </c>
       <c r="E28" t="n">
-        <v>340.1224508275133</v>
+        <v>340.1224508275132</v>
       </c>
       <c r="F28" t="n">
-        <v>273.3422977989603</v>
+        <v>273.3422977989602</v>
       </c>
       <c r="G28" t="n">
-        <v>185.0271635782356</v>
+        <v>185.0271635782355</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4997163620377</v>
+        <v>112.4997163620378</v>
       </c>
       <c r="I28" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J28" t="n">
         <v>147.1708219328279</v>
       </c>
       <c r="K28" t="n">
-        <v>347.4491354406399</v>
+        <v>347.44913544064</v>
       </c>
       <c r="L28" t="n">
-        <v>637.3055192252452</v>
+        <v>637.3055192252453</v>
       </c>
       <c r="M28" t="n">
-        <v>949.0394661365351</v>
+        <v>949.0394661365353</v>
       </c>
       <c r="N28" t="n">
-        <v>1260.662618676065</v>
+        <v>1260.662618676066</v>
       </c>
       <c r="O28" t="n">
-        <v>1538.474478212274</v>
+        <v>1538.474478212275</v>
       </c>
       <c r="P28" t="n">
-        <v>1764.001776889043</v>
+        <v>1764.001776889044</v>
       </c>
       <c r="Q28" t="n">
-        <v>1860.865579621833</v>
+        <v>1860.865579621834</v>
       </c>
       <c r="R28" t="n">
-        <v>1818.677031825937</v>
+        <v>1818.677031825938</v>
       </c>
       <c r="S28" t="n">
         <v>1694.516846774634</v>
@@ -6415,19 +6415,19 @@
         <v>1549.774723354822</v>
       </c>
       <c r="U28" t="n">
-        <v>1340.742264109924</v>
+        <v>1340.742264109925</v>
       </c>
       <c r="V28" t="n">
         <v>1166.167570373395</v>
       </c>
       <c r="W28" t="n">
-        <v>956.8601948057917</v>
+        <v>956.860194805792</v>
       </c>
       <c r="X28" t="n">
-        <v>808.9804383771318</v>
+        <v>808.980438377132</v>
       </c>
       <c r="Y28" t="n">
-        <v>668.2976537029591</v>
+        <v>668.2976537029592</v>
       </c>
     </row>
     <row r="29">
@@ -6437,58 +6437,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.612319227323</v>
+        <v>1871.612319227322</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.759596756268</v>
+        <v>1582.759596756267</v>
       </c>
       <c r="D29" t="n">
-        <v>1304.603692618875</v>
+        <v>1304.603692618874</v>
       </c>
       <c r="E29" t="n">
-        <v>998.9252344899886</v>
+        <v>998.9252344899878</v>
       </c>
       <c r="F29" t="n">
-        <v>668.0491241697384</v>
+        <v>668.049124169738</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4766880929415</v>
+        <v>331.476688092941</v>
       </c>
       <c r="H29" t="n">
-        <v>97.51671874019287</v>
+        <v>97.51671874019297</v>
       </c>
       <c r="I29" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J29" t="n">
-        <v>128.5384875643907</v>
+        <v>295.9441365847438</v>
       </c>
       <c r="K29" t="n">
-        <v>582.5666423072169</v>
+        <v>749.97229132757</v>
       </c>
       <c r="L29" t="n">
-        <v>1198.105343723666</v>
+        <v>952.0263903390736</v>
       </c>
       <c r="M29" t="n">
-        <v>1899.617296132882</v>
+        <v>1653.538342748289</v>
       </c>
       <c r="N29" t="n">
-        <v>2597.848447794431</v>
+        <v>2351.769494409838</v>
       </c>
       <c r="O29" t="n">
-        <v>3211.98068697338</v>
+        <v>2878.886861208955</v>
       </c>
       <c r="P29" t="n">
-        <v>3600.520226791037</v>
+        <v>3365.36013598914</v>
       </c>
       <c r="Q29" t="n">
-        <v>3678.42779595891</v>
+        <v>3653.45954591032</v>
       </c>
       <c r="R29" t="n">
-        <v>3678.42779595891</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S29" t="n">
-        <v>3611.564051292014</v>
+        <v>3611.564051292015</v>
       </c>
       <c r="T29" t="n">
         <v>3478.649284483332</v>
@@ -6497,16 +6497,16 @@
         <v>3305.099819795234</v>
       </c>
       <c r="V29" t="n">
-        <v>3054.146726921021</v>
+        <v>3054.14672692102</v>
       </c>
       <c r="W29" t="n">
-        <v>2781.487866120264</v>
+        <v>2781.487866120263</v>
       </c>
       <c r="X29" t="n">
-        <v>2488.131902328541</v>
+        <v>2488.13190232854</v>
       </c>
       <c r="Y29" t="n">
-        <v>2178.102364822087</v>
+        <v>2178.102364822086</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I30" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J30" t="n">
-        <v>87.49042366834242</v>
+        <v>212.3205486553472</v>
       </c>
       <c r="K30" t="n">
-        <v>451.2605224615115</v>
+        <v>314.2700628060634</v>
       </c>
       <c r="L30" t="n">
-        <v>817.9109874405021</v>
+        <v>864.808248938763</v>
       </c>
       <c r="M30" t="n">
-        <v>1051.294291976511</v>
+        <v>1098.191553474772</v>
       </c>
       <c r="N30" t="n">
-        <v>1305.263203045638</v>
+        <v>1352.160464543899</v>
       </c>
       <c r="O30" t="n">
-        <v>1905.299040705002</v>
+        <v>1952.196302203262</v>
       </c>
       <c r="P30" t="n">
-        <v>2369.877632843134</v>
+        <v>2416.774894341394</v>
       </c>
       <c r="Q30" t="n">
         <v>2627.738349037781</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.7589833420766</v>
+        <v>566.7589833420768</v>
       </c>
       <c r="C31" t="n">
-        <v>477.932594883527</v>
+        <v>477.9325948835273</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9257499405487</v>
+        <v>407.9257499405489</v>
       </c>
       <c r="E31" t="n">
-        <v>340.122450827513</v>
+        <v>340.1224508275132</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3422977989601</v>
+        <v>273.3422977989602</v>
       </c>
       <c r="G31" t="n">
-        <v>185.0271635782354</v>
+        <v>185.0271635782355</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4997163620376</v>
+        <v>112.4997163620378</v>
       </c>
       <c r="I31" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J31" t="n">
-        <v>147.170821932828</v>
+        <v>147.1708219328279</v>
       </c>
       <c r="K31" t="n">
-        <v>347.4491354406401</v>
+        <v>347.44913544064</v>
       </c>
       <c r="L31" t="n">
-        <v>637.3055192252452</v>
+        <v>637.3055192252453</v>
       </c>
       <c r="M31" t="n">
-        <v>949.0394661365352</v>
+        <v>949.0394661365353</v>
       </c>
       <c r="N31" t="n">
         <v>1260.662618676065</v>
@@ -6640,10 +6640,10 @@
         <v>1764.001776889043</v>
       </c>
       <c r="Q31" t="n">
-        <v>1860.865579621833</v>
+        <v>1860.865579621834</v>
       </c>
       <c r="R31" t="n">
-        <v>1818.677031825937</v>
+        <v>1818.677031825938</v>
       </c>
       <c r="S31" t="n">
         <v>1694.516846774634</v>
@@ -6658,13 +6658,13 @@
         <v>1166.167570373395</v>
       </c>
       <c r="W31" t="n">
-        <v>956.8601948057919</v>
+        <v>956.860194805792</v>
       </c>
       <c r="X31" t="n">
         <v>808.980438377132</v>
       </c>
       <c r="Y31" t="n">
-        <v>668.2976537029589</v>
+        <v>668.2976537029592</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1304.603692618875</v>
       </c>
       <c r="E32" t="n">
-        <v>998.9252344899885</v>
+        <v>998.9252344899884</v>
       </c>
       <c r="F32" t="n">
-        <v>668.0491241697384</v>
+        <v>668.0491241697383</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4766880929415</v>
+        <v>331.4766880929413</v>
       </c>
       <c r="H32" t="n">
-        <v>97.51671874019284</v>
+        <v>97.51671874019297</v>
       </c>
       <c r="I32" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J32" t="n">
-        <v>128.5384875643907</v>
+        <v>138.9936329383253</v>
       </c>
       <c r="K32" t="n">
-        <v>582.5666423072169</v>
+        <v>593.0217876811515</v>
       </c>
       <c r="L32" t="n">
-        <v>1198.105343723666</v>
+        <v>1208.560489097601</v>
       </c>
       <c r="M32" t="n">
-        <v>1801.683561170352</v>
+        <v>1910.072441506816</v>
       </c>
       <c r="N32" t="n">
-        <v>2499.914712831901</v>
+        <v>2608.303593168365</v>
       </c>
       <c r="O32" t="n">
-        <v>3114.046952010851</v>
+        <v>3222.435832347315</v>
       </c>
       <c r="P32" t="n">
-        <v>3600.520226791037</v>
+        <v>3390.328386037733</v>
       </c>
       <c r="Q32" t="n">
-        <v>3678.42779595891</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="R32" t="n">
-        <v>3678.42779595891</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S32" t="n">
-        <v>3611.564051292014</v>
+        <v>3611.564051292016</v>
       </c>
       <c r="T32" t="n">
-        <v>3478.649284483331</v>
+        <v>3478.649284483333</v>
       </c>
       <c r="U32" t="n">
         <v>3305.099819795234</v>
@@ -6774,28 +6774,28 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I33" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J33" t="n">
-        <v>87.49042366834242</v>
+        <v>212.3205486553472</v>
       </c>
       <c r="K33" t="n">
-        <v>451.2605224615115</v>
+        <v>576.0906474485162</v>
       </c>
       <c r="L33" t="n">
-        <v>634.6667667437865</v>
+        <v>1126.628833581216</v>
       </c>
       <c r="M33" t="n">
-        <v>1329.098084392295</v>
+        <v>1360.012138117224</v>
       </c>
       <c r="N33" t="n">
-        <v>2057.615946061541</v>
+        <v>1695.186899129601</v>
       </c>
       <c r="O33" t="n">
-        <v>2267.728087636942</v>
+        <v>1905.299040705002</v>
       </c>
       <c r="P33" t="n">
-        <v>2417.028538821536</v>
+        <v>2369.877632843134</v>
       </c>
       <c r="Q33" t="n">
         <v>2627.738349037781</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>566.7589833420762</v>
+        <v>566.7589833420759</v>
       </c>
       <c r="C34" t="n">
-        <v>477.9325948835268</v>
+        <v>477.9325948835264</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9257499405485</v>
+        <v>407.925749940548</v>
       </c>
       <c r="E34" t="n">
-        <v>340.1224508275128</v>
+        <v>340.1224508275123</v>
       </c>
       <c r="F34" t="n">
-        <v>273.3422977989599</v>
+        <v>273.3422977989593</v>
       </c>
       <c r="G34" t="n">
-        <v>185.0271635782353</v>
+        <v>185.0271635782345</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4997163620376</v>
+        <v>112.4997163620372</v>
       </c>
       <c r="I34" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917825</v>
       </c>
       <c r="J34" t="n">
-        <v>147.170821932828</v>
+        <v>147.1708219328279</v>
       </c>
       <c r="K34" t="n">
         <v>347.44913544064</v>
       </c>
       <c r="L34" t="n">
-        <v>637.3055192252455</v>
+        <v>637.3055192252453</v>
       </c>
       <c r="M34" t="n">
-        <v>949.0394661365337</v>
+        <v>949.0394661365352</v>
       </c>
       <c r="N34" t="n">
-        <v>1260.662618676064</v>
+        <v>1260.662618676065</v>
       </c>
       <c r="O34" t="n">
-        <v>1538.474478212273</v>
+        <v>1538.474478212274</v>
       </c>
       <c r="P34" t="n">
-        <v>1764.001776889042</v>
+        <v>1764.001776889044</v>
       </c>
       <c r="Q34" t="n">
-        <v>1860.865579621832</v>
+        <v>1860.865579621833</v>
       </c>
       <c r="R34" t="n">
-        <v>1818.677031825936</v>
+        <v>1818.677031825937</v>
       </c>
       <c r="S34" t="n">
-        <v>1694.516846774633</v>
+        <v>1694.516846774634</v>
       </c>
       <c r="T34" t="n">
-        <v>1549.774723354821</v>
+        <v>1549.774723354822</v>
       </c>
       <c r="U34" t="n">
         <v>1340.742264109924</v>
       </c>
       <c r="V34" t="n">
-        <v>1166.167570373394</v>
+        <v>1166.167570373395</v>
       </c>
       <c r="W34" t="n">
-        <v>956.8601948057911</v>
+        <v>956.8601948057915</v>
       </c>
       <c r="X34" t="n">
-        <v>808.9804383771312</v>
+        <v>808.9804383771311</v>
       </c>
       <c r="Y34" t="n">
-        <v>668.2976537029585</v>
+        <v>668.2976537029583</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817076</v>
       </c>
       <c r="C35" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148577</v>
       </c>
       <c r="D35" t="n">
         <v>963.8659528137387</v>
@@ -6941,16 +6941,16 @@
         <v>728.5296495536693</v>
       </c>
       <c r="L35" t="n">
-        <v>1344.068350970119</v>
+        <v>930.5837485651729</v>
       </c>
       <c r="M35" t="n">
-        <v>1600.56190522143</v>
+        <v>1187.077302816484</v>
       </c>
       <c r="N35" t="n">
-        <v>1865.819601715115</v>
+        <v>1452.334999310169</v>
       </c>
       <c r="O35" t="n">
-        <v>2102.959661443947</v>
+        <v>1831.723022562516</v>
       </c>
       <c r="P35" t="n">
         <v>2318.196297342701</v>
@@ -6977,10 +6977,10 @@
         <v>2071.56645730235</v>
       </c>
       <c r="X35" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313184</v>
       </c>
       <c r="Y35" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609285</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.7640580471561</v>
+        <v>955.7640580471563</v>
       </c>
       <c r="C36" t="n">
-        <v>781.3110287660292</v>
+        <v>781.3110287660293</v>
       </c>
       <c r="D36" t="n">
         <v>632.376619104778</v>
@@ -7002,10 +7002,10 @@
         <v>473.1391640993224</v>
       </c>
       <c r="F36" t="n">
-        <v>326.6046061262075</v>
+        <v>326.6046061262074</v>
       </c>
       <c r="G36" t="n">
-        <v>189.3801975165229</v>
+        <v>189.3801975165225</v>
       </c>
       <c r="H36" t="n">
         <v>90.5598768826743</v>
@@ -7020,16 +7020,16 @@
         <v>554.6480056746157</v>
       </c>
       <c r="L36" t="n">
-        <v>1105.186191807315</v>
+        <v>738.0542499568908</v>
       </c>
       <c r="M36" t="n">
-        <v>1338.569496343324</v>
+        <v>971.4375544928994</v>
       </c>
       <c r="N36" t="n">
-        <v>1599.098702225276</v>
+        <v>1616.49574204071</v>
       </c>
       <c r="O36" t="n">
-        <v>2199.134539884639</v>
+        <v>1883.856398931101</v>
       </c>
       <c r="P36" t="n">
         <v>2348.434991069233</v>
@@ -7038,7 +7038,7 @@
         <v>2606.295707263881</v>
       </c>
       <c r="R36" t="n">
-        <v>2598.656161719379</v>
+        <v>2598.656161719378</v>
       </c>
       <c r="S36" t="n">
         <v>2453.219848663941</v>
@@ -7050,7 +7050,7 @@
         <v>2028.980658997655</v>
       </c>
       <c r="V36" t="n">
-        <v>1793.828550765913</v>
+        <v>1793.828550765912</v>
       </c>
       <c r="W36" t="n">
         <v>1539.591194037711</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>554.9872268549457</v>
+        <v>401.0406985830328</v>
       </c>
       <c r="C37" t="n">
-        <v>539.9975721989516</v>
+        <v>386.0510439270387</v>
       </c>
       <c r="D37" t="n">
-        <v>389.8809327866159</v>
+        <v>235.934404514703</v>
       </c>
       <c r="E37" t="n">
-        <v>241.9678392042227</v>
+        <v>88.02131093230989</v>
       </c>
       <c r="F37" t="n">
-        <v>241.9678392042227</v>
+        <v>88.02131093230989</v>
       </c>
       <c r="G37" t="n">
-        <v>227.4894387860535</v>
+        <v>73.5429105141406</v>
       </c>
       <c r="H37" t="n">
-        <v>171.1668690574945</v>
+        <v>73.5429105141406</v>
       </c>
       <c r="I37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="J37" t="n">
         <v>52.12591414527761</v>
@@ -7138,7 +7138,7 @@
         <v>649.5352142848899</v>
       </c>
       <c r="Y37" t="n">
-        <v>582.6891634132726</v>
+        <v>428.7426351413598</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817076</v>
       </c>
       <c r="C38" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148577</v>
       </c>
       <c r="D38" t="n">
-        <v>963.8659528137383</v>
+        <v>963.8659528137397</v>
       </c>
       <c r="E38" t="n">
-        <v>732.0242284874068</v>
+        <v>732.0242284874082</v>
       </c>
       <c r="F38" t="n">
-        <v>474.9848519697121</v>
+        <v>474.9848519697134</v>
       </c>
       <c r="G38" t="n">
         <v>212.2491496954706</v>
       </c>
       <c r="H38" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="I38" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J38" t="n">
         <v>274.5014948108431</v>
       </c>
       <c r="K38" t="n">
-        <v>728.5296495536693</v>
+        <v>490.977122023059</v>
       </c>
       <c r="L38" t="n">
-        <v>1072.831712088687</v>
+        <v>693.0312210345626</v>
       </c>
       <c r="M38" t="n">
-        <v>1329.325266339998</v>
+        <v>949.5247752858735</v>
       </c>
       <c r="N38" t="n">
-        <v>1594.582962833683</v>
+        <v>1594.582962833684</v>
       </c>
       <c r="O38" t="n">
-        <v>1831.723022562514</v>
+        <v>1831.723022562516</v>
       </c>
       <c r="P38" t="n">
-        <v>2318.1962973427</v>
+        <v>2318.196297342701</v>
       </c>
       <c r="Q38" t="n">
-        <v>2606.295707263879</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="R38" t="n">
-        <v>2606.295707263879</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="S38" t="n">
-        <v>2606.295707263879</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="T38" t="n">
-        <v>2547.217674257752</v>
+        <v>2547.217674257753</v>
       </c>
       <c r="U38" t="n">
-        <v>2447.504943372209</v>
+        <v>2447.50494337221</v>
       </c>
       <c r="V38" t="n">
-        <v>2270.388584300551</v>
+        <v>2270.388584300552</v>
       </c>
       <c r="W38" t="n">
         <v>2071.56645730235</v>
       </c>
       <c r="X38" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313184</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609285</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>955.764058047156</v>
+        <v>955.7640580471563</v>
       </c>
       <c r="C39" t="n">
-        <v>781.311028766029</v>
+        <v>781.3110287660293</v>
       </c>
       <c r="D39" t="n">
-        <v>632.3766191047778</v>
+        <v>632.376619104778</v>
       </c>
       <c r="E39" t="n">
-        <v>473.1391640993223</v>
+        <v>473.1391640993224</v>
       </c>
       <c r="F39" t="n">
-        <v>326.6046061262073</v>
+        <v>326.6046061262074</v>
       </c>
       <c r="G39" t="n">
         <v>189.3801975165225</v>
       </c>
       <c r="H39" t="n">
-        <v>90.55987688267427</v>
+        <v>90.5598768826743</v>
       </c>
       <c r="I39" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J39" t="n">
-        <v>66.04778189444178</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K39" t="n">
-        <v>429.8178806876108</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L39" t="n">
-        <v>980.3560668203104</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M39" t="n">
-        <v>1419.775346286572</v>
+        <v>1338.569496343324</v>
       </c>
       <c r="N39" t="n">
-        <v>1673.7442573557</v>
+        <v>1592.538407412452</v>
       </c>
       <c r="O39" t="n">
         <v>1883.856398931101</v>
@@ -7272,7 +7272,7 @@
         <v>2348.434991069233</v>
       </c>
       <c r="Q39" t="n">
-        <v>2606.29570726388</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="R39" t="n">
         <v>2598.656161719378</v>
@@ -7281,7 +7281,7 @@
         <v>2453.219848663941</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.105170892338</v>
+        <v>2257.105170892339</v>
       </c>
       <c r="U39" t="n">
         <v>2028.980658997655</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.9872268549457</v>
+        <v>93.14764203920723</v>
       </c>
       <c r="C40" t="n">
-        <v>386.0510439270388</v>
+        <v>71.61741888521759</v>
       </c>
       <c r="D40" t="n">
-        <v>235.9344045147031</v>
+        <v>71.61741888521759</v>
       </c>
       <c r="E40" t="n">
-        <v>88.02131093230994</v>
+        <v>71.61741888521759</v>
       </c>
       <c r="F40" t="n">
-        <v>66.60431456344686</v>
+        <v>71.61741888521759</v>
       </c>
       <c r="G40" t="n">
-        <v>52.12591414527758</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="H40" t="n">
-        <v>52.12591414527758</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="I40" t="n">
-        <v>52.12591414527758</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="J40" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="K40" t="n">
-        <v>173.8886180936724</v>
+        <v>173.8886180936725</v>
       </c>
       <c r="L40" t="n">
         <v>385.2293923188607</v>
@@ -7366,16 +7366,16 @@
         <v>959.7868386100163</v>
       </c>
       <c r="V40" t="n">
-        <v>859.0488786760422</v>
+        <v>705.1023504041294</v>
       </c>
       <c r="W40" t="n">
-        <v>723.5782369109944</v>
+        <v>415.6851803671688</v>
       </c>
       <c r="X40" t="n">
-        <v>649.5352142848899</v>
+        <v>341.6421577410642</v>
       </c>
       <c r="Y40" t="n">
-        <v>582.6891634132726</v>
+        <v>274.7961068694469</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1383.201111817076</v>
+        <v>1383.201111817075</v>
       </c>
       <c r="C41" t="n">
-        <v>1168.185123148577</v>
+        <v>1168.185123148576</v>
       </c>
       <c r="D41" t="n">
-        <v>963.8659528137397</v>
+        <v>963.8659528137383</v>
       </c>
       <c r="E41" t="n">
-        <v>732.0242284874082</v>
+        <v>732.0242284874068</v>
       </c>
       <c r="F41" t="n">
-        <v>474.9848519697134</v>
+        <v>474.9848519697121</v>
       </c>
       <c r="G41" t="n">
         <v>212.2491496954706</v>
       </c>
       <c r="H41" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="I41" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="J41" t="n">
         <v>274.5014948108431</v>
       </c>
       <c r="K41" t="n">
-        <v>407.6256911082162</v>
+        <v>728.5296495536693</v>
       </c>
       <c r="L41" t="n">
-        <v>609.6797901197198</v>
+        <v>1047.863462040094</v>
       </c>
       <c r="M41" t="n">
-        <v>1254.73797766753</v>
+        <v>1304.357016291405</v>
       </c>
       <c r="N41" t="n">
-        <v>1519.995674161215</v>
+        <v>1569.61471278509</v>
       </c>
       <c r="O41" t="n">
-        <v>1831.723022562516</v>
+        <v>1806.754772513922</v>
       </c>
       <c r="P41" t="n">
-        <v>2318.196297342701</v>
+        <v>2293.228047294107</v>
       </c>
       <c r="Q41" t="n">
-        <v>2606.295707263881</v>
+        <v>2581.327457215287</v>
       </c>
       <c r="R41" t="n">
-        <v>2606.295707263881</v>
+        <v>2606.295707263879</v>
       </c>
       <c r="S41" t="n">
-        <v>2606.295707263881</v>
+        <v>2606.295707263879</v>
       </c>
       <c r="T41" t="n">
-        <v>2547.217674257753</v>
+        <v>2547.217674257751</v>
       </c>
       <c r="U41" t="n">
-        <v>2447.504943372211</v>
+        <v>2447.504943372209</v>
       </c>
       <c r="V41" t="n">
-        <v>2270.388584300553</v>
+        <v>2270.388584300551</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.566457302351</v>
+        <v>2071.56645730235</v>
       </c>
       <c r="X41" t="n">
-        <v>1852.047227313184</v>
+        <v>1852.047227313183</v>
       </c>
       <c r="Y41" t="n">
-        <v>1615.854423609285</v>
+        <v>1615.854423609284</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>955.7640580471561</v>
+        <v>955.764058047155</v>
       </c>
       <c r="C42" t="n">
-        <v>781.3110287660292</v>
+        <v>781.311028766028</v>
       </c>
       <c r="D42" t="n">
-        <v>632.376619104778</v>
+        <v>632.3766191047768</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1391640993224</v>
+        <v>473.1391640993212</v>
       </c>
       <c r="F42" t="n">
-        <v>326.6046061262075</v>
+        <v>326.6046061262062</v>
       </c>
       <c r="G42" t="n">
-        <v>189.3801975165229</v>
+        <v>189.3801975165214</v>
       </c>
       <c r="H42" t="n">
-        <v>90.5598768826743</v>
+        <v>90.55987688267427</v>
       </c>
       <c r="I42" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="J42" t="n">
-        <v>190.8779068814466</v>
+        <v>190.8779068814465</v>
       </c>
       <c r="K42" t="n">
-        <v>554.6480056746157</v>
+        <v>554.6480056746155</v>
       </c>
       <c r="L42" t="n">
         <v>1105.186191807315</v>
       </c>
       <c r="M42" t="n">
-        <v>1419.775346286572</v>
+        <v>1338.569496343324</v>
       </c>
       <c r="N42" t="n">
-        <v>1673.7442573557</v>
+        <v>1592.538407412451</v>
       </c>
       <c r="O42" t="n">
-        <v>1883.856398931101</v>
+        <v>1883.8563989311</v>
       </c>
       <c r="P42" t="n">
-        <v>2348.434991069233</v>
+        <v>2348.434991069232</v>
       </c>
       <c r="Q42" t="n">
-        <v>2606.295707263881</v>
+        <v>2606.295707263879</v>
       </c>
       <c r="R42" t="n">
-        <v>2598.656161719378</v>
+        <v>2598.656161719377</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.219848663941</v>
+        <v>2453.21984866394</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.105170892339</v>
+        <v>2257.105170892337</v>
       </c>
       <c r="U42" t="n">
-        <v>2028.980658997655</v>
+        <v>2028.980658997654</v>
       </c>
       <c r="V42" t="n">
-        <v>1793.828550765913</v>
+        <v>1793.828550765911</v>
       </c>
       <c r="W42" t="n">
-        <v>1539.591194037711</v>
+        <v>1539.59119403771</v>
       </c>
       <c r="X42" t="n">
-        <v>1331.739693832178</v>
+        <v>1331.739693832177</v>
       </c>
       <c r="Y42" t="n">
-        <v>1123.979395067224</v>
+        <v>1123.979395067223</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>401.0406985830328</v>
+        <v>353.2721658172129</v>
       </c>
       <c r="C43" t="n">
-        <v>386.0510439270387</v>
+        <v>338.2825111612188</v>
       </c>
       <c r="D43" t="n">
-        <v>368.4639364177528</v>
+        <v>338.2825111612188</v>
       </c>
       <c r="E43" t="n">
-        <v>220.5508428353597</v>
+        <v>338.2825111612188</v>
       </c>
       <c r="F43" t="n">
-        <v>220.5508428353597</v>
+        <v>338.2825111612188</v>
       </c>
       <c r="G43" t="n">
-        <v>52.12591414527761</v>
+        <v>323.8041107430495</v>
       </c>
       <c r="H43" t="n">
-        <v>52.12591414527761</v>
+        <v>171.1668690574944</v>
       </c>
       <c r="I43" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="J43" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="K43" t="n">
-        <v>173.8886180936725</v>
+        <v>173.8886180936724</v>
       </c>
       <c r="L43" t="n">
         <v>385.2293923188607</v>
@@ -7591,28 +7591,28 @@
         <v>1216.211404918363</v>
       </c>
       <c r="R43" t="n">
-        <v>1216.211404918363</v>
+        <v>1168.442872152543</v>
       </c>
       <c r="S43" t="n">
-        <v>1165.887953669615</v>
+        <v>964.172892631882</v>
       </c>
       <c r="T43" t="n">
-        <v>1094.982564052358</v>
+        <v>893.2675030146254</v>
       </c>
       <c r="U43" t="n">
-        <v>959.7868386100163</v>
+        <v>758.0717775722835</v>
       </c>
       <c r="V43" t="n">
-        <v>859.0488786760422</v>
+        <v>657.3338176383095</v>
       </c>
       <c r="W43" t="n">
-        <v>723.5782369109944</v>
+        <v>521.8631758732616</v>
       </c>
       <c r="X43" t="n">
-        <v>649.5352142848899</v>
+        <v>447.8201532471571</v>
       </c>
       <c r="Y43" t="n">
-        <v>428.7426351413598</v>
+        <v>380.9741023755398</v>
       </c>
     </row>
     <row r="44">
@@ -7628,67 +7628,67 @@
         <v>1168.185123148576</v>
       </c>
       <c r="D44" t="n">
-        <v>963.8659528137382</v>
+        <v>963.8659528137387</v>
       </c>
       <c r="E44" t="n">
-        <v>732.0242284874066</v>
+        <v>732.0242284874073</v>
       </c>
       <c r="F44" t="n">
-        <v>474.9848519697118</v>
+        <v>474.984851969713</v>
       </c>
       <c r="G44" t="n">
         <v>212.2491496954706</v>
       </c>
       <c r="H44" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="I44" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J44" t="n">
         <v>274.5014948108431</v>
       </c>
       <c r="K44" t="n">
-        <v>407.6256911082162</v>
+        <v>728.5296495536693</v>
       </c>
       <c r="L44" t="n">
-        <v>1023.164392524666</v>
+        <v>930.5837485651729</v>
       </c>
       <c r="M44" t="n">
-        <v>1279.657946775977</v>
+        <v>1187.077302816484</v>
       </c>
       <c r="N44" t="n">
-        <v>1544.915643269662</v>
+        <v>1452.334999310169</v>
       </c>
       <c r="O44" t="n">
-        <v>1806.754772513922</v>
+        <v>1831.723022562516</v>
       </c>
       <c r="P44" t="n">
-        <v>2293.228047294107</v>
+        <v>2318.196297342701</v>
       </c>
       <c r="Q44" t="n">
-        <v>2581.327457215287</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="R44" t="n">
-        <v>2606.295707263879</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="S44" t="n">
-        <v>2606.295707263879</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="T44" t="n">
-        <v>2547.217674257751</v>
+        <v>2547.217674257753</v>
       </c>
       <c r="U44" t="n">
-        <v>2447.504943372209</v>
+        <v>2447.50494337221</v>
       </c>
       <c r="V44" t="n">
-        <v>2270.388584300551</v>
+        <v>2270.388584300552</v>
       </c>
       <c r="W44" t="n">
         <v>2071.56645730235</v>
       </c>
       <c r="X44" t="n">
-        <v>1852.047227313182</v>
+        <v>1852.047227313183</v>
       </c>
       <c r="Y44" t="n">
         <v>1615.854423609284</v>
@@ -7701,67 +7701,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>955.764058047156</v>
+        <v>955.7640580471561</v>
       </c>
       <c r="C45" t="n">
-        <v>781.311028766029</v>
+        <v>781.3110287660292</v>
       </c>
       <c r="D45" t="n">
-        <v>632.3766191047778</v>
+        <v>632.376619104778</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1391640993223</v>
+        <v>473.1391640993224</v>
       </c>
       <c r="F45" t="n">
-        <v>326.6046061262073</v>
+        <v>326.6046061262075</v>
       </c>
       <c r="G45" t="n">
-        <v>189.3801975165225</v>
+        <v>189.3801975165229</v>
       </c>
       <c r="H45" t="n">
-        <v>90.55987688267427</v>
+        <v>90.5598768826743</v>
       </c>
       <c r="I45" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J45" t="n">
-        <v>66.04778189444178</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K45" t="n">
-        <v>167.997296045158</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L45" t="n">
-        <v>516.9588419881457</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M45" t="n">
-        <v>1162.017029535956</v>
+        <v>1338.569496343324</v>
       </c>
       <c r="N45" t="n">
-        <v>1807.075217083766</v>
+        <v>1592.538407412452</v>
       </c>
       <c r="O45" t="n">
-        <v>2407.111054743129</v>
+        <v>1883.856398931101</v>
       </c>
       <c r="P45" t="n">
-        <v>2556.411505927723</v>
+        <v>2348.434991069233</v>
       </c>
       <c r="Q45" t="n">
-        <v>2606.29570726388</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="R45" t="n">
-        <v>2598.656161719378</v>
+        <v>2598.656161719379</v>
       </c>
       <c r="S45" t="n">
         <v>2453.219848663941</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.105170892338</v>
+        <v>2257.105170892339</v>
       </c>
       <c r="U45" t="n">
         <v>2028.980658997655</v>
       </c>
       <c r="V45" t="n">
-        <v>1793.828550765912</v>
+        <v>1793.828550765913</v>
       </c>
       <c r="W45" t="n">
         <v>1539.591194037711</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>401.0406985830328</v>
+        <v>278.7423563177796</v>
       </c>
       <c r="C46" t="n">
-        <v>386.0510439270387</v>
+        <v>218.5073663831279</v>
       </c>
       <c r="D46" t="n">
-        <v>361.4073556437503</v>
+        <v>218.5073663831279</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4942620613572</v>
+        <v>218.5073663831279</v>
       </c>
       <c r="F46" t="n">
-        <v>66.60431456344686</v>
+        <v>71.61741888521759</v>
       </c>
       <c r="G46" t="n">
-        <v>52.12591414527758</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="H46" t="n">
-        <v>52.12591414527758</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="I46" t="n">
-        <v>52.12591414527758</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="J46" t="n">
-        <v>52.12591414527758</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="K46" t="n">
-        <v>173.8886180936724</v>
+        <v>173.8886180936725</v>
       </c>
       <c r="L46" t="n">
         <v>385.2293923188607</v>
@@ -7828,28 +7828,28 @@
         <v>1216.211404918363</v>
       </c>
       <c r="R46" t="n">
-        <v>1216.211404918363</v>
+        <v>1093.91306265311</v>
       </c>
       <c r="S46" t="n">
-        <v>1165.887953669615</v>
+        <v>1043.589611404361</v>
       </c>
       <c r="T46" t="n">
-        <v>1094.982564052358</v>
+        <v>972.6842217871049</v>
       </c>
       <c r="U46" t="n">
-        <v>959.7868386100163</v>
+        <v>837.488496344763</v>
       </c>
       <c r="V46" t="n">
-        <v>705.1023504041294</v>
+        <v>736.750536410789</v>
       </c>
       <c r="W46" t="n">
-        <v>569.6317086390816</v>
+        <v>601.2798946457411</v>
       </c>
       <c r="X46" t="n">
-        <v>495.5886860129771</v>
+        <v>527.2368720196366</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.7426351413598</v>
+        <v>460.3908211480193</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.49596527844477</v>
+        <v>40.49596527844471</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>200.9222468714795</v>
+        <v>200.9222468714793</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>12.77427514326101</v>
       </c>
       <c r="M14" t="n">
-        <v>273.5605488698357</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>275.674129504493</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>343.8404349235826</v>
+        <v>25.3776662836471</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>230.3421733820046</v>
+        <v>227.4359702028478</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,16 +9173,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>275.674129504493</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>307.8704850172974</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>287.0769430646524</v>
       </c>
       <c r="O18" t="n">
-        <v>331.3767102300324</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>95.14951202924016</v>
+        <v>56.76349185893213</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>97.60762739829281</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>12.77427514326084</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.49596527844471</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>3.193625298430604</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>358.3523640614726</v>
+        <v>25.3776662836471</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>69.6012076107277</v>
+        <v>38.14371260210805</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>290.3412131628608</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>48.40039934280992</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>48.40039934281236</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>324.758689720448</v>
       </c>
       <c r="P26" t="n">
-        <v>165.6095503020556</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>40.49596527844477</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>33.05302771573674</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>82.02611105378645</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>292.9063707780656</v>
       </c>
       <c r="P29" t="n">
-        <v>222.8757435628673</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>40.49596527844471</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>185.0951724209248</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>162.7063165254846</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>10.56075290296425</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>350.5905688842171</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>40.49596527844471</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>82.02611105378645</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>162.4501099798869</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>143.6848116399143</v>
       </c>
       <c r="P35" t="n">
-        <v>47.82230526094631</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>6.626560416994153</v>
+        <v>395.0396732107907</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>57.82678314645472</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,16 +10823,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>84.19336456044726</v>
       </c>
       <c r="L38" t="n">
-        <v>143.6848116399131</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>383.6368596506317</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>208.1171463941949</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.02611105378645</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>118.4643570453753</v>
       </c>
       <c r="M41" t="n">
-        <v>392.4895285823228</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>75.34069562875627</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>40.49596527844471</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>82.02611105378639</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.02611105378531</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>24.94855506608948</v>
+        <v>143.6848116399143</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>40.49596527844471</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>167.2275774350632</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>415.8332151634359</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>395.0396732107904</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>82.02611105378645</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>261.680895884951</v>
+        <v>261.6808958849511</v>
       </c>
       <c r="D11" t="n">
-        <v>251.0910457346264</v>
+        <v>19.24935713954326</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>303.284049855655</v>
       </c>
       <c r="G11" t="n">
-        <v>308.9234123546362</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>207.3370702978283</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>41.91180785883451</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.3023197792036</v>
       </c>
       <c r="U11" t="n">
-        <v>147.5306706798246</v>
+        <v>147.5306706798247</v>
       </c>
       <c r="V11" t="n">
-        <v>224.1602625840784</v>
+        <v>224.1602625840785</v>
       </c>
       <c r="W11" t="n">
-        <v>245.6489728313565</v>
+        <v>245.6489728313566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>266.1391047924126</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.8721813363865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>279.1418457774241</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>251.0910457346264</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>308.9234123546363</v>
       </c>
       <c r="H14" t="n">
-        <v>207.3370702978282</v>
+        <v>207.3370702978283</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>19.7214212230374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>147.5306706798246</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>224.1602625840784</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>245.6489728313565</v>
+        <v>17.44117215086567</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>282.6459427699971</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>22.56458067128685</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.56458067128767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22.5645806712876</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>22.56458067128672</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1392650.372136373</v>
+        <v>1392650.372136374</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1392650.372136373</v>
+        <v>1392650.372136374</v>
       </c>
     </row>
     <row r="9">
@@ -26320,16 +26320,16 @@
         <v>102409.5423396298</v>
       </c>
       <c r="E2" t="n">
-        <v>84478.9883415838</v>
+        <v>84478.98834158383</v>
       </c>
       <c r="F2" t="n">
-        <v>91730.10127169549</v>
+        <v>91730.10127169552</v>
       </c>
       <c r="G2" t="n">
         <v>102405.7036553561</v>
       </c>
       <c r="H2" t="n">
-        <v>102405.7036553562</v>
+        <v>102405.7036553561</v>
       </c>
       <c r="I2" t="n">
         <v>102630.2212330354</v>
@@ -26338,10 +26338,10 @@
         <v>102630.2212330354</v>
       </c>
       <c r="K2" t="n">
+        <v>102630.2212330353</v>
+      </c>
+      <c r="L2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="L2" t="n">
-        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>746153.5340830687</v>
+        <v>746153.5340830688</v>
       </c>
       <c r="F3" t="n">
-        <v>53805.21405764102</v>
+        <v>53805.21405764112</v>
       </c>
       <c r="G3" t="n">
-        <v>63446.95721973106</v>
+        <v>63446.95721973104</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1546.174978532614</v>
+        <v>1546.174978532644</v>
       </c>
       <c r="J3" t="n">
-        <v>96855.72589324038</v>
+        <v>96855.72589324029</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63446.95721973108</v>
+        <v>63446.95721973104</v>
       </c>
       <c r="M3" t="n">
-        <v>80357.16505209095</v>
+        <v>80357.16505209093</v>
       </c>
       <c r="N3" t="n">
-        <v>45993.5561292721</v>
+        <v>45993.55612927226</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26439,7 +26439,7 @@
         <v>217964.0846343739</v>
       </c>
       <c r="J4" t="n">
-        <v>207063.1162296207</v>
+        <v>207063.1162296206</v>
       </c>
       <c r="K4" t="n">
         <v>207063.1162296206</v>
@@ -26451,13 +26451,13 @@
         <v>213872.961061016</v>
       </c>
       <c r="N4" t="n">
-        <v>213872.9610610159</v>
+        <v>213872.961061016</v>
       </c>
       <c r="O4" t="n">
         <v>213872.961061016</v>
       </c>
       <c r="P4" t="n">
-        <v>213872.9610610159</v>
+        <v>213872.961061016</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>45458.11311732121</v>
+        <v>45458.11311732122</v>
       </c>
       <c r="F5" t="n">
-        <v>56875.42608265272</v>
+        <v>56875.42608265274</v>
       </c>
       <c r="G5" t="n">
-        <v>63542.82889078469</v>
+        <v>63542.8288907847</v>
       </c>
       <c r="H5" t="n">
-        <v>63542.82889078469</v>
+        <v>63542.8288907847</v>
       </c>
       <c r="I5" t="n">
-        <v>63896.34530616663</v>
+        <v>63896.34530616666</v>
       </c>
       <c r="J5" t="n">
-        <v>77694.4951296895</v>
+        <v>77694.49512968952</v>
       </c>
       <c r="K5" t="n">
-        <v>77694.49512968949</v>
+        <v>77694.49512968952</v>
       </c>
       <c r="L5" t="n">
-        <v>77694.49512968949</v>
+        <v>77694.49512968952</v>
       </c>
       <c r="M5" t="n">
         <v>67543.39395183159</v>
       </c>
       <c r="N5" t="n">
+        <v>67543.39395183159</v>
+      </c>
+      <c r="O5" t="n">
         <v>67543.39395183157</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>67543.39395183159</v>
-      </c>
-      <c r="P5" t="n">
-        <v>67543.39395183157</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378242.677932763</v>
+        <v>-378247.0915106311</v>
       </c>
       <c r="C6" t="n">
-        <v>-378242.677932763</v>
+        <v>-378247.0915106311</v>
       </c>
       <c r="D6" t="n">
-        <v>-378242.677932763</v>
+        <v>-378247.0915106312</v>
       </c>
       <c r="E6" t="n">
-        <v>-850041.4692126501</v>
+        <v>-850404.4938704792</v>
       </c>
       <c r="F6" t="n">
-        <v>-187447.9884723414</v>
+        <v>-187665.9908715683</v>
       </c>
       <c r="G6" t="n">
-        <v>-241755.8612247828</v>
+        <v>-241760.3515763365</v>
       </c>
       <c r="H6" t="n">
-        <v>-178308.9040050518</v>
+        <v>-178313.3943566054</v>
       </c>
       <c r="I6" t="n">
-        <v>-180776.3836860377</v>
+        <v>-180776.3836860378</v>
       </c>
       <c r="J6" t="n">
         <v>-278983.1160195151</v>
       </c>
       <c r="K6" t="n">
-        <v>-182127.3901262746</v>
+        <v>-182127.3901262748</v>
       </c>
       <c r="L6" t="n">
-        <v>-245574.3473460058</v>
+        <v>-245574.3473460057</v>
       </c>
       <c r="M6" t="n">
         <v>-259143.298831903</v>
       </c>
       <c r="N6" t="n">
-        <v>-224779.6899090841</v>
+        <v>-224779.6899090843</v>
       </c>
       <c r="O6" t="n">
         <v>-178786.1337798121</v>
       </c>
       <c r="P6" t="n">
-        <v>-178786.133779812</v>
+        <v>-178786.1337798121</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G2" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="H2" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="I2" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="J2" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="K2" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="M2" t="n">
         <v>152.4070629891937</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="F3" t="n">
         <v>693.3481570175271</v>
@@ -26759,7 +26759,7 @@
         <v>693.3481570175271</v>
       </c>
       <c r="J3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="K3" t="n">
         <v>693.3481570175271</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.8264439505632</v>
+        <v>355.8264439505633</v>
       </c>
       <c r="F4" t="n">
-        <v>543.6111966698313</v>
+        <v>543.6111966698318</v>
       </c>
       <c r="G4" t="n">
-        <v>543.6111966698313</v>
+        <v>543.6111966698318</v>
       </c>
       <c r="H4" t="n">
-        <v>543.6111966698313</v>
+        <v>543.6111966698318</v>
       </c>
       <c r="I4" t="n">
-        <v>549.4256113965081</v>
+        <v>549.4256113965087</v>
       </c>
       <c r="J4" t="n">
-        <v>919.6069489897278</v>
+        <v>919.606948989728</v>
       </c>
       <c r="K4" t="n">
-        <v>919.6069489897276</v>
+        <v>919.606948989728</v>
       </c>
       <c r="L4" t="n">
-        <v>919.6069489897276</v>
+        <v>919.606948989728</v>
       </c>
       <c r="M4" t="n">
         <v>651.5739268159701</v>
       </c>
       <c r="N4" t="n">
+        <v>651.5739268159701</v>
+      </c>
+      <c r="O4" t="n">
         <v>651.5739268159698</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>651.5739268159701</v>
-      </c>
-      <c r="P4" t="n">
-        <v>651.5739268159698</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466386</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="M2" t="n">
-        <v>73.0983664645298</v>
+        <v>73.09836646452989</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175271</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.8264439505632</v>
+        <v>355.8264439505633</v>
       </c>
       <c r="F4" t="n">
-        <v>187.7847527192681</v>
+        <v>187.7847527192685</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.814414726676773</v>
+        <v>5.814414726676887</v>
       </c>
       <c r="J4" t="n">
-        <v>370.1813375932197</v>
+        <v>370.1813375932194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>87.79342177680576</v>
+        <v>87.79342177680542</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192678</v>
+        <v>187.7847527192685</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>355.8264439505632</v>
+        <v>355.8264439505633</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192681</v>
+        <v>187.7847527192685</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I11" t="n">
-        <v>103.0173777174684</v>
+        <v>103.0173777174683</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E12" t="n">
-        <v>13.98475521599659</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H12" t="n">
-        <v>97.83211742750973</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.04962311002273</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U12" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>103.5919958860565</v>
+        <v>79.52712799203067</v>
       </c>
       <c r="Y12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="J13" t="n">
-        <v>30.86400121666504</v>
+        <v>4.96297327855298</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.90102793811226</v>
       </c>
       <c r="O13" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="S13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I14" t="n">
         <v>103.0173777174683</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>75.91603084149017</v>
+        <v>10.373658065455</v>
       </c>
       <c r="H15" t="n">
         <v>97.83211742750971</v>
       </c>
       <c r="I15" t="n">
-        <v>38.04962311002273</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,13 +28454,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U15" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28482,34 +28482,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="C16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="D16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="E16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="F16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="J16" t="n">
-        <v>4.96297327855298</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="K16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28521,37 +28521,37 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>25.90102793811062</v>
+        <v>30.86400121666523</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="S16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="U16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="V16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="W16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="X16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860564</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="C17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="D17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="E17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="F17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="G17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="H17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="I17" t="n">
         <v>103.0173777174683</v>
@@ -28615,22 +28615,22 @@
         <v>145.5038037448909</v>
       </c>
       <c r="T17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="V17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="W17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="X17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="Y17" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
     </row>
     <row r="18">
@@ -28655,10 +28655,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.563150089057117</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.9819499248829</v>
+        <v>2.396788789315764</v>
       </c>
       <c r="T18" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U18" t="n">
-        <v>84.53597072647503</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>10.09278103106473</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>117.8505453630947</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.96297327855298</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S19" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="T19" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U19" t="n">
-        <v>85.68405216812019</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="W19" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="X19" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="C20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="D20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="E20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="F20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="G20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="H20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="I20" t="n">
         <v>103.0173777174683</v>
@@ -28852,22 +28852,22 @@
         <v>145.5038037448909</v>
       </c>
       <c r="T20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="V20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="W20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="X20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="Y20" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.83211742750971</v>
+        <v>31.49826398052345</v>
       </c>
       <c r="I21" t="n">
         <v>38.04962311002273</v>
@@ -28928,10 +28928,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>100.1993302028825</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.6153399393372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28965,22 +28965,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>95.32393206880401</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J22" t="n">
-        <v>4.96297327855298</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="T22" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U22" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="V22" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="W22" t="n">
-        <v>182.9006924107204</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>182.9006924107204</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="C23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="D23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="E23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="F23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="G23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="H23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="I23" t="n">
         <v>103.0173777174683</v>
@@ -29089,22 +29089,22 @@
         <v>145.5038037448909</v>
       </c>
       <c r="T23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="V23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="W23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="X23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="Y23" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>124.6832774187279</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.852164523588</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>124.6832774187256</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,16 +29193,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29211,10 +29211,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>38.24035771400693</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>117.8505453630947</v>
+        <v>22.24209951384267</v>
       </c>
       <c r="J25" t="n">
         <v>4.96297327855298</v>
@@ -29244,25 +29244,25 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S25" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="T25" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U25" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="V25" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="W25" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="X25" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.9006924107204</v>
+        <v>182.9006924107202</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="C26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="D26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="E26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="F26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="G26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="H26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="I26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="T26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="U26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="V26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="W26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="X26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="C28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="D28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="E28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="F28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="G28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="H28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="I28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="J28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="K28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="L28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="M28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="N28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466421</v>
       </c>
       <c r="O28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="P28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="R28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="S28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="T28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="U28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="V28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="W28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="X28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="C29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="D29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="E29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="F29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="G29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="H29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="I29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="T29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="U29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="V29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="W29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="X29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="C31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="D31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="E31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="F31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="G31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="H31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="I31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="J31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="K31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="L31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="M31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="N31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="O31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="P31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466416</v>
       </c>
       <c r="R31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="S31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="T31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="U31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="V31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="W31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="X31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466377</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="C32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="D32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="E32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="F32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="G32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="H32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="I32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="T32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="U32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="V32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="W32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="X32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="C34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="D34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="E34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="F34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="G34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="H34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="I34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="J34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="K34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="L34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="M34" t="n">
-        <v>79.30869652466214</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="N34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="O34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="P34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="R34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="S34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="T34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="U34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="V34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="W34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="X34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.30869652466386</v>
+        <v>79.30869652466377</v>
       </c>
     </row>
     <row r="35">
@@ -30159,13 +30159,13 @@
         <v>152.4070629891937</v>
       </c>
       <c r="H37" t="n">
-        <v>95.35152523742613</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>101.6106922364733</v>
       </c>
       <c r="J37" t="n">
-        <v>4.96297327855298</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30210,7 +30210,7 @@
         <v>152.4070629891937</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,19 +30378,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>145.9319001761781</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>124.2182216177568</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>152.4070629891937</v>
@@ -30402,7 +30402,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J40" t="n">
-        <v>4.96297327855298</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30438,10 +30438,10 @@
         <v>152.4070629891937</v>
       </c>
       <c r="V40" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>152.4070629891937</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.094235813070554e-12</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30621,22 +30621,22 @@
         <v>152.4070629891937</v>
       </c>
       <c r="D43" t="n">
-        <v>131.2042365840193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="H43" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>117.8505453630947</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>4.96297327855298</v>
@@ -30663,10 +30663,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.0753588426008</v>
+        <v>73.78451140443897</v>
       </c>
       <c r="S43" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>152.4070629891937</v>
@@ -30684,7 +30684,7 @@
         <v>152.4070629891937</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
     </row>
     <row r="44">
@@ -30852,16 +30852,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.4070629891937</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>152.4070629891937</v>
+        <v>107.6141810633227</v>
       </c>
       <c r="D46" t="n">
-        <v>124.2182216177569</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J46" t="n">
-        <v>4.96297327855298</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.4070629891937</v>
@@ -30912,7 +30912,7 @@
         <v>152.4070629891937</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="W46" t="n">
         <v>152.4070629891937</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H11" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I11" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J11" t="n">
-        <v>236.5710880066988</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K11" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L11" t="n">
-        <v>439.8614644765563</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M11" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N11" t="n">
-        <v>497.3501307619291</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O11" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891934</v>
       </c>
       <c r="P11" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.0002041854329</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R11" t="n">
         <v>175.0895725356874</v>
       </c>
       <c r="S11" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135438</v>
       </c>
       <c r="T11" t="n">
         <v>12.20153389887125</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2229863419553853</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H12" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I12" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J12" t="n">
         <v>140.9001193425901</v>
       </c>
       <c r="K12" t="n">
-        <v>240.8207461973046</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L12" t="n">
         <v>323.8132123882328</v>
       </c>
       <c r="M12" t="n">
-        <v>377.8747455745521</v>
+        <v>377.8747455745522</v>
       </c>
       <c r="N12" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O12" t="n">
-        <v>354.8307308842432</v>
+        <v>354.8307308842433</v>
       </c>
       <c r="P12" t="n">
         <v>284.7829439644254</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R12" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S12" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T12" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.250299955277507</v>
+        <v>1.250299955277508</v>
       </c>
       <c r="H13" t="n">
         <v>11.11630323874003</v>
       </c>
       <c r="I13" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J13" t="n">
-        <v>88.39620683811977</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K13" t="n">
-        <v>145.2621220767867</v>
+        <v>145.2621220767868</v>
       </c>
       <c r="L13" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M13" t="n">
         <v>195.9902011713642</v>
       </c>
       <c r="N13" t="n">
-        <v>191.3299922471481</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O13" t="n">
-        <v>176.7242154968608</v>
+        <v>176.7242154968609</v>
       </c>
       <c r="P13" t="n">
-        <v>151.2180964091995</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q13" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R13" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S13" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T13" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.787329274442317</v>
+        <v>2.787329274442318</v>
       </c>
       <c r="H26" t="n">
-        <v>28.54573593188239</v>
+        <v>28.5457359318824</v>
       </c>
       <c r="I26" t="n">
-        <v>107.4585118529375</v>
+        <v>107.4585118529376</v>
       </c>
       <c r="J26" t="n">
-        <v>236.5710880066988</v>
+        <v>236.5710880066989</v>
       </c>
       <c r="K26" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938423</v>
       </c>
       <c r="L26" t="n">
-        <v>439.8614644765563</v>
+        <v>439.8614644765565</v>
       </c>
       <c r="M26" t="n">
-        <v>489.4306314609199</v>
+        <v>489.43063146092</v>
       </c>
       <c r="N26" t="n">
-        <v>497.3501307619291</v>
+        <v>497.3501307619293</v>
       </c>
       <c r="O26" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891934</v>
       </c>
       <c r="P26" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263987</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.0002041854329</v>
+        <v>301.0002041854331</v>
       </c>
       <c r="R26" t="n">
         <v>175.0895725356874</v>
       </c>
       <c r="S26" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135438</v>
       </c>
       <c r="T26" t="n">
         <v>12.20153389887125</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2229863419553853</v>
+        <v>0.2229863419553854</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.491352639622605</v>
+        <v>1.491352639622606</v>
       </c>
       <c r="H27" t="n">
-        <v>14.40332680898674</v>
+        <v>14.40332680898675</v>
       </c>
       <c r="I27" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139235</v>
       </c>
       <c r="J27" t="n">
         <v>140.9001193425901</v>
       </c>
       <c r="K27" t="n">
-        <v>240.8207461973046</v>
+        <v>240.8207461973047</v>
       </c>
       <c r="L27" t="n">
         <v>323.8132123882328</v>
       </c>
       <c r="M27" t="n">
-        <v>377.8747455745521</v>
+        <v>377.8747455745522</v>
       </c>
       <c r="N27" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885127</v>
       </c>
       <c r="O27" t="n">
-        <v>354.8307308842432</v>
+        <v>354.8307308842433</v>
       </c>
       <c r="P27" t="n">
         <v>284.7829439644254</v>
       </c>
       <c r="Q27" t="n">
-        <v>190.3698562437557</v>
+        <v>190.3698562437558</v>
       </c>
       <c r="R27" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358602</v>
       </c>
       <c r="S27" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895496</v>
       </c>
       <c r="T27" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934973</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.09811530523832936</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.250299955277507</v>
+        <v>1.250299955277508</v>
       </c>
       <c r="H28" t="n">
         <v>11.11630323874003</v>
       </c>
       <c r="I28" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416361</v>
       </c>
       <c r="J28" t="n">
-        <v>88.39620683811977</v>
+        <v>88.3962068381198</v>
       </c>
       <c r="K28" t="n">
-        <v>145.2621220767867</v>
+        <v>145.2621220767868</v>
       </c>
       <c r="L28" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600761</v>
       </c>
       <c r="M28" t="n">
         <v>195.9902011713642</v>
       </c>
       <c r="N28" t="n">
-        <v>191.3299922471481</v>
+        <v>191.3299922471482</v>
       </c>
       <c r="O28" t="n">
-        <v>176.7242154968608</v>
+        <v>176.7242154968609</v>
       </c>
       <c r="P28" t="n">
-        <v>151.2180964091995</v>
+        <v>151.2180964091996</v>
       </c>
       <c r="Q28" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R28" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456866</v>
       </c>
       <c r="S28" t="n">
         <v>21.78931831151801</v>
       </c>
       <c r="T28" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003896</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877323</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.52518348001254</v>
+        <v>55.5251834800126</v>
       </c>
       <c r="K11" t="n">
-        <v>134.4688851488616</v>
+        <v>134.4688851488617</v>
       </c>
       <c r="L11" t="n">
-        <v>204.0950495065691</v>
+        <v>204.0950495065692</v>
       </c>
       <c r="M11" t="n">
-        <v>259.0843982336471</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N11" t="n">
-        <v>267.9370671653382</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O11" t="n">
-        <v>239.5354138675066</v>
+        <v>239.5354138675067</v>
       </c>
       <c r="P11" t="n">
-        <v>169.588438071129</v>
+        <v>169.5884380711291</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.69451431098346</v>
+        <v>78.69451431098358</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.06249267592341</v>
+        <v>14.06249267592344</v>
       </c>
       <c r="K12" t="n">
-        <v>303.9015540944251</v>
+        <v>303.901554094425</v>
       </c>
       <c r="L12" t="n">
-        <v>185.2588326083586</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M12" t="n">
-        <v>235.7407116525338</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N12" t="n">
-        <v>256.5342536051793</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2344864397988</v>
+        <v>212.2344864397989</v>
       </c>
       <c r="P12" t="n">
-        <v>150.8085365500951</v>
+        <v>150.8085365500952</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.3880821577342</v>
+        <v>50.38808215773426</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.90102793811203</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>122.9926302509039</v>
+        <v>226.5846261369604</v>
       </c>
       <c r="L13" t="n">
-        <v>213.4755295203921</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M13" t="n">
-        <v>235.5740781332048</v>
+        <v>339.1660740192613</v>
       </c>
       <c r="N13" t="n">
-        <v>235.4621646263767</v>
+        <v>261.3631925644891</v>
       </c>
       <c r="O13" t="n">
-        <v>304.901339296957</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P13" t="n">
-        <v>148.496655674093</v>
+        <v>148.4966556740931</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.1255243440087</v>
+        <v>18.5335284579522</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>224.6217986520864</v>
       </c>
       <c r="K14" t="n">
-        <v>134.4688851488617</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L14" t="n">
-        <v>204.0950495065692</v>
+        <v>216.8693246498302</v>
       </c>
       <c r="M14" t="n">
-        <v>532.644947103483</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N14" t="n">
-        <v>543.6111966698313</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O14" t="n">
         <v>239.5354138675067</v>
@@ -35665,7 +35665,7 @@
         <v>169.5884380711291</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.69451431098358</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R14" t="n">
         <v>25.22045459453773</v>
@@ -35729,7 +35729,7 @@
         <v>367.4445442355243</v>
       </c>
       <c r="L15" t="n">
-        <v>529.0992675319412</v>
+        <v>210.6364988920058</v>
       </c>
       <c r="M15" t="n">
         <v>235.7407116525339</v>
@@ -35741,7 +35741,7 @@
         <v>212.2344864397989</v>
       </c>
       <c r="P15" t="n">
-        <v>150.8085365500952</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q15" t="n">
         <v>260.4653698935833</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>98.62902260750346</v>
       </c>
       <c r="K16" t="n">
         <v>226.5846261369604</v>
@@ -35817,10 +35817,10 @@
         <v>235.4621646263768</v>
       </c>
       <c r="O16" t="n">
-        <v>304.9013392969571</v>
+        <v>201.3093434109006</v>
       </c>
       <c r="P16" t="n">
-        <v>174.3976836122037</v>
+        <v>179.3606568907583</v>
       </c>
       <c r="Q16" t="n">
         <v>18.5335284579522</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.5251834800126</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K17" t="n">
-        <v>364.8110585308663</v>
+        <v>361.9048553517095</v>
       </c>
       <c r="L17" t="n">
         <v>204.0950495065692</v>
@@ -35893,16 +35893,16 @@
         <v>259.0843982336473</v>
       </c>
       <c r="N17" t="n">
-        <v>543.6111966698313</v>
+        <v>267.9370671653384</v>
       </c>
       <c r="O17" t="n">
         <v>239.5354138675067</v>
       </c>
       <c r="P17" t="n">
-        <v>169.5884380711291</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q17" t="n">
-        <v>291.0095049708883</v>
+        <v>78.69451431098358</v>
       </c>
       <c r="R17" t="n">
         <v>25.22045459453773</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K18" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L18" t="n">
         <v>185.2588326083587</v>
       </c>
       <c r="M18" t="n">
-        <v>543.6111966698313</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N18" t="n">
-        <v>256.5342536051794</v>
+        <v>543.6111966698318</v>
       </c>
       <c r="O18" t="n">
-        <v>543.6111966698313</v>
+        <v>212.2344864397989</v>
       </c>
       <c r="P18" t="n">
-        <v>245.9580485793354</v>
+        <v>207.5720284090273</v>
       </c>
       <c r="Q18" t="n">
         <v>260.4653698935833</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>153.1328108783054</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K20" t="n">
         <v>458.6142977200265</v>
@@ -36136,13 +36136,13 @@
         <v>239.5354138675067</v>
       </c>
       <c r="P20" t="n">
-        <v>491.3871462426118</v>
+        <v>182.36271321439</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.69451431098358</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.25611797435404</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K21" t="n">
         <v>367.4445442355243</v>
       </c>
       <c r="L21" t="n">
-        <v>543.6111966698313</v>
+        <v>210.6364988920058</v>
       </c>
       <c r="M21" t="n">
         <v>235.7407116525339</v>
@@ -36218,7 +36218,7 @@
         <v>469.2713051900324</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.38808215773426</v>
+        <v>260.4653698935833</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>224.6217986520864</v>
       </c>
       <c r="K23" t="n">
-        <v>204.0700927595894</v>
+        <v>172.6125977509698</v>
       </c>
       <c r="L23" t="n">
         <v>204.0950495065692</v>
       </c>
       <c r="M23" t="n">
-        <v>549.4256113965081</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N23" t="n">
         <v>267.9370671653384</v>
@@ -36373,7 +36373,7 @@
         <v>239.5354138675067</v>
       </c>
       <c r="P23" t="n">
-        <v>169.5884380711291</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q23" t="n">
         <v>291.0095049708883</v>
@@ -36440,7 +36440,7 @@
         <v>367.4445442355243</v>
       </c>
       <c r="L24" t="n">
-        <v>233.6592319511686</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M24" t="n">
         <v>235.7407116525339</v>
@@ -36449,7 +36449,7 @@
         <v>256.5342536051794</v>
       </c>
       <c r="O24" t="n">
-        <v>212.2344864397989</v>
+        <v>260.6348857826113</v>
       </c>
       <c r="P24" t="n">
         <v>469.2713051900324</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.6217986520863</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K26" t="n">
-        <v>134.4688851488616</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L26" t="n">
-        <v>621.7562640570195</v>
+        <v>621.7562640570197</v>
       </c>
       <c r="M26" t="n">
-        <v>708.5979317264796</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N26" t="n">
-        <v>705.2839915773224</v>
+        <v>705.2839915773225</v>
       </c>
       <c r="O26" t="n">
-        <v>620.3355951302519</v>
+        <v>564.2941035879547</v>
       </c>
       <c r="P26" t="n">
-        <v>335.1979883731846</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.0095049708881</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>47.11552039166015</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K27" t="n">
-        <v>102.9793072229456</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L27" t="n">
-        <v>185.2588326083586</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M27" t="n">
-        <v>701.4457754025336</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N27" t="n">
-        <v>735.8766279487328</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O27" t="n">
-        <v>606.0968057165283</v>
+        <v>294.2605974935854</v>
       </c>
       <c r="P27" t="n">
-        <v>150.8085365500951</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.3880821577342</v>
+        <v>260.4653698935833</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.34572324611082</v>
+        <v>74.34572324611079</v>
       </c>
       <c r="K28" t="n">
         <v>202.3013267755677</v>
@@ -36762,7 +36762,7 @@
         <v>314.8827746578686</v>
       </c>
       <c r="N28" t="n">
-        <v>314.7708611510405</v>
+        <v>314.770861151041</v>
       </c>
       <c r="O28" t="n">
         <v>280.6180399355644</v>
@@ -36771,7 +36771,7 @@
         <v>227.8053521987569</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.842224982616</v>
+        <v>97.84222498261597</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.5251834800126</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K29" t="n">
         <v>458.6142977200265</v>
       </c>
       <c r="L29" t="n">
-        <v>621.7562640570197</v>
+        <v>204.0950495065692</v>
       </c>
       <c r="M29" t="n">
         <v>708.5979317264798</v>
@@ -36844,16 +36844,16 @@
         <v>705.2839915773225</v>
       </c>
       <c r="O29" t="n">
-        <v>620.335595130252</v>
+        <v>532.4417846455723</v>
       </c>
       <c r="P29" t="n">
-        <v>392.4641816339965</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.69451431098358</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K30" t="n">
-        <v>367.4445442355243</v>
+        <v>102.9793072229457</v>
       </c>
       <c r="L30" t="n">
-        <v>370.3540050292835</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M30" t="n">
         <v>235.7407116525339</v>
@@ -36929,7 +36929,7 @@
         <v>469.2713051900324</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.4653698935833</v>
+        <v>213.0943986832188</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.34572324611085</v>
+        <v>74.34572324611079</v>
       </c>
       <c r="K31" t="n">
-        <v>202.3013267755678</v>
+        <v>202.3013267755677</v>
       </c>
       <c r="L31" t="n">
         <v>292.784226045056</v>
       </c>
       <c r="M31" t="n">
-        <v>314.8827746578687</v>
+        <v>314.8827746578686</v>
       </c>
       <c r="N31" t="n">
-        <v>314.7708611510406</v>
+        <v>314.7708611510405</v>
       </c>
       <c r="O31" t="n">
         <v>280.6180399355644</v>
@@ -37008,7 +37008,7 @@
         <v>227.8053521987569</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.84222498261603</v>
+        <v>97.84222498261636</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.5251834800126</v>
+        <v>66.08593638297685</v>
       </c>
       <c r="K32" t="n">
         <v>458.6142977200265</v>
@@ -37075,7 +37075,7 @@
         <v>621.7562640570197</v>
       </c>
       <c r="M32" t="n">
-        <v>609.6749671178644</v>
+        <v>708.5979317264798</v>
       </c>
       <c r="N32" t="n">
         <v>705.2839915773225</v>
@@ -37084,10 +37084,10 @@
         <v>620.335595130252</v>
       </c>
       <c r="P32" t="n">
-        <v>491.3871462426118</v>
+        <v>169.5884380711291</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.69451431098358</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K33" t="n">
         <v>367.4445442355243</v>
       </c>
       <c r="L33" t="n">
-        <v>185.2588326083587</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M33" t="n">
-        <v>701.4457754025339</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N33" t="n">
-        <v>735.8766279487329</v>
+        <v>338.5603646589659</v>
       </c>
       <c r="O33" t="n">
         <v>212.2344864397989</v>
       </c>
       <c r="P33" t="n">
-        <v>150.8085365500952</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q33" t="n">
-        <v>212.8381921376211</v>
+        <v>260.4653698935833</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.34572324611088</v>
+        <v>74.34572324611079</v>
       </c>
       <c r="K34" t="n">
-        <v>202.3013267755678</v>
+        <v>202.3013267755677</v>
       </c>
       <c r="L34" t="n">
-        <v>292.7842260450561</v>
+        <v>292.784226045056</v>
       </c>
       <c r="M34" t="n">
-        <v>314.8827746578669</v>
+        <v>314.8827746578686</v>
       </c>
       <c r="N34" t="n">
-        <v>314.7708611510407</v>
+        <v>314.7708611510405</v>
       </c>
       <c r="O34" t="n">
         <v>280.6180399355644</v>
       </c>
       <c r="P34" t="n">
-        <v>227.805352198757</v>
+        <v>227.8053521987569</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.84222498261606</v>
+        <v>97.84222498261597</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>458.6142977200265</v>
       </c>
       <c r="L35" t="n">
-        <v>621.7562640570197</v>
+        <v>204.0950495065692</v>
       </c>
       <c r="M35" t="n">
         <v>259.0843982336473</v>
@@ -37318,10 +37318,10 @@
         <v>267.9370671653384</v>
       </c>
       <c r="O35" t="n">
-        <v>239.5354138675067</v>
+        <v>383.220225507421</v>
       </c>
       <c r="P35" t="n">
-        <v>217.4107433320754</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q35" t="n">
         <v>291.0095049708883</v>
@@ -37388,19 +37388,19 @@
         <v>367.4445442355243</v>
       </c>
       <c r="L36" t="n">
-        <v>556.0991779118178</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M36" t="n">
         <v>235.7407116525339</v>
       </c>
       <c r="N36" t="n">
-        <v>263.1608140221736</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="O36" t="n">
-        <v>606.0968057165285</v>
+        <v>270.0612695862536</v>
       </c>
       <c r="P36" t="n">
-        <v>150.8085365500952</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q36" t="n">
         <v>260.4653698935833</v>
@@ -37543,16 +37543,16 @@
         <v>224.6217986520864</v>
       </c>
       <c r="K38" t="n">
-        <v>458.6142977200265</v>
+        <v>218.662249709309</v>
       </c>
       <c r="L38" t="n">
-        <v>347.7798611464823</v>
+        <v>204.0950495065692</v>
       </c>
       <c r="M38" t="n">
         <v>259.0843982336473</v>
       </c>
       <c r="N38" t="n">
-        <v>267.9370671653384</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="O38" t="n">
         <v>239.5354138675067</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K39" t="n">
         <v>367.4445442355243</v>
@@ -37628,13 +37628,13 @@
         <v>556.0991779118178</v>
       </c>
       <c r="M39" t="n">
-        <v>443.8578580467288</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N39" t="n">
         <v>256.5342536051794</v>
       </c>
       <c r="O39" t="n">
-        <v>212.2344864397989</v>
+        <v>294.2605974935854</v>
       </c>
       <c r="P39" t="n">
         <v>469.2713051900324</v>
@@ -37780,19 +37780,19 @@
         <v>224.6217986520864</v>
       </c>
       <c r="K41" t="n">
-        <v>134.4688851488617</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L41" t="n">
-        <v>204.0950495065692</v>
+        <v>322.5594065519446</v>
       </c>
       <c r="M41" t="n">
-        <v>651.5739268159701</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N41" t="n">
         <v>267.9370671653384</v>
       </c>
       <c r="O41" t="n">
-        <v>314.876109496263</v>
+        <v>239.5354138675067</v>
       </c>
       <c r="P41" t="n">
         <v>491.3871462426118</v>
@@ -37801,7 +37801,7 @@
         <v>291.0095049708883</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>25.22045459453773</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>556.0991779118178</v>
       </c>
       <c r="M42" t="n">
-        <v>317.7668227063203</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N42" t="n">
         <v>256.5342536051794</v>
       </c>
       <c r="O42" t="n">
-        <v>212.2344864397989</v>
+        <v>294.2605974935842</v>
       </c>
       <c r="P42" t="n">
         <v>469.2713051900324</v>
@@ -38017,10 +38017,10 @@
         <v>224.6217986520864</v>
       </c>
       <c r="K44" t="n">
-        <v>134.4688851488617</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L44" t="n">
-        <v>621.7562640570197</v>
+        <v>204.0950495065692</v>
       </c>
       <c r="M44" t="n">
         <v>259.0843982336473</v>
@@ -38029,7 +38029,7 @@
         <v>267.9370671653384</v>
       </c>
       <c r="O44" t="n">
-        <v>264.4839689335962</v>
+        <v>383.220225507421</v>
       </c>
       <c r="P44" t="n">
         <v>491.3871462426118</v>
@@ -38038,7 +38038,7 @@
         <v>291.0095049708883</v>
       </c>
       <c r="R44" t="n">
-        <v>25.22045459453773</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K45" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L45" t="n">
-        <v>352.4864100434219</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M45" t="n">
-        <v>651.5739268159698</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N45" t="n">
-        <v>651.5739268159698</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O45" t="n">
-        <v>606.0968057165285</v>
+        <v>294.2605974935854</v>
       </c>
       <c r="P45" t="n">
-        <v>150.8085365500952</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.38808215773426</v>
+        <v>260.4653698935833</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
